--- a/programs/addtoWIDE_countries.xlsx
+++ b/programs/addtoWIDE_countries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosa_V\Dropbox\WIDE\WIDE\programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F714181D-A336-411E-8E45-0B41E9B659FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0073767F-7FB2-4AC4-AEB4-4C7804660A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="650" yWindow="760" windowWidth="17640" windowHeight="8930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="270" windowWidth="17640" windowHeight="8930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="surveys to include" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6754" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6754" uniqueCount="570">
   <si>
     <t>iso_code3</t>
   </si>
@@ -1699,12 +1699,6 @@
     <t>PK</t>
   </si>
   <si>
-    <t>Be careful with this because it was already in "Part1" as Benin/2017</t>
-  </si>
-  <si>
-    <t>Be careful with this because it was already in "Part2" as Nigeria/2018</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -1748,6 +1742,16 @@
   </si>
   <si>
     <t>MICS6</t>
+  </si>
+  <si>
+    <t>Be careful with this because it was already in "Part1" as Benin_2017</t>
+  </si>
+  <si>
+    <t>Be careful with this because it was already in "Part2" as Nigeria_2018</t>
+  </si>
+  <si>
+    <t>iso_
+code3</t>
   </si>
 </sst>
 </file>
@@ -2118,7 +2122,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2344,76 +2348,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2450,6 +2389,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2736,1004 +2750,937 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" style="103" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" style="103" customWidth="1"/>
-    <col min="3" max="3" width="5.08984375" style="103" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" style="103" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="84"/>
-    <col min="6" max="6" width="19.6328125" style="103" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" style="103" customWidth="1"/>
-    <col min="8" max="8" width="13" style="103" customWidth="1"/>
-    <col min="9" max="9" width="7" style="109" customWidth="1"/>
-    <col min="10" max="10" width="19" style="109" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="103"/>
+    <col min="1" max="1" width="9.36328125" style="123" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" style="123" customWidth="1"/>
+    <col min="3" max="3" width="5.6328125" style="123" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" style="123" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="126"/>
+    <col min="6" max="6" width="19.6328125" style="123" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" style="123" customWidth="1"/>
+    <col min="8" max="8" width="13" style="123" customWidth="1"/>
+    <col min="9" max="9" width="7" style="110" customWidth="1"/>
+    <col min="10" max="10" width="19" style="110" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="123"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="92" customFormat="1" ht="65" x14ac:dyDescent="0.35">
-      <c r="A1" s="92" t="s">
-        <v>557</v>
-      </c>
-      <c r="B1" s="93" t="s">
+    <row r="1" spans="1:45" s="101" customFormat="1" ht="65" x14ac:dyDescent="0.35">
+      <c r="A1" s="102" t="s">
+        <v>555</v>
+      </c>
+      <c r="B1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="93" t="s">
+      <c r="C1" s="102" t="s">
+        <v>569</v>
+      </c>
+      <c r="D1" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="101" t="s">
+        <v>561</v>
+      </c>
+      <c r="I1" s="102" t="s">
+        <v>565</v>
+      </c>
+      <c r="J1" s="101" t="s">
+        <v>559</v>
+      </c>
+      <c r="K1" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="105" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" s="106" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="127" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="107">
+        <v>2018</v>
+      </c>
+      <c r="F2" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="108" t="s">
+        <v>567</v>
+      </c>
+      <c r="I2" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="110" t="s">
         <v>563</v>
       </c>
-      <c r="I1" s="93" t="s">
-        <v>567</v>
-      </c>
-      <c r="J1" s="92" t="s">
-        <v>561</v>
-      </c>
-      <c r="K1" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="95" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" s="95" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
+      <c r="K2" s="111">
+        <v>6</v>
+      </c>
+      <c r="L2" s="112">
+        <v>6</v>
+      </c>
+      <c r="M2" s="112">
+        <v>4</v>
+      </c>
+      <c r="N2" s="112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" s="106" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="127" t="s">
         <v>539</v>
       </c>
-      <c r="B2" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="96" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="88">
+      <c r="B3" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="107">
         <v>2018</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F3" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="96" t="s">
+      <c r="G3" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="98" t="s">
-        <v>552</v>
-      </c>
-      <c r="I2" s="99" t="s">
+      <c r="H3" s="86"/>
+      <c r="I3" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="109" t="s">
-        <v>565</v>
-      </c>
-      <c r="K2" s="100">
-        <v>6</v>
-      </c>
-      <c r="L2" s="90">
-        <v>6</v>
-      </c>
-      <c r="M2" s="90">
-        <v>4</v>
-      </c>
-      <c r="N2" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="96" t="s">
+      <c r="J3" s="110" t="s">
+        <v>563</v>
+      </c>
+      <c r="K3" s="111">
+        <v>7</v>
+      </c>
+      <c r="L3" s="112">
+        <v>6</v>
+      </c>
+      <c r="M3" s="112">
+        <v>4</v>
+      </c>
+      <c r="N3" s="112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" s="106" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="127" t="s">
         <v>539</v>
       </c>
-      <c r="B3" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="96" t="s">
+      <c r="B4" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="107">
+        <v>2018</v>
+      </c>
+      <c r="F4" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="86"/>
+      <c r="I4" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="113" t="s">
+        <v>564</v>
+      </c>
+      <c r="K4" s="111">
+        <v>7</v>
+      </c>
+      <c r="L4" s="112">
+        <v>6</v>
+      </c>
+      <c r="M4" s="112">
+        <v>3</v>
+      </c>
+      <c r="N4" s="112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" s="106" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="127" t="s">
+        <v>539</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="107">
+        <v>2018</v>
+      </c>
+      <c r="F5" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="108" t="s">
+        <v>568</v>
+      </c>
+      <c r="I5" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="110" t="s">
+        <v>563</v>
+      </c>
+      <c r="K5" s="111">
+        <v>6</v>
+      </c>
+      <c r="L5" s="112">
+        <v>6</v>
+      </c>
+      <c r="M5" s="112">
+        <v>3</v>
+      </c>
+      <c r="N5" s="112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" s="106" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="127" t="s">
+        <v>539</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="107">
+        <v>2017</v>
+      </c>
+      <c r="F6" s="86" t="s">
+        <v>558</v>
+      </c>
+      <c r="G6" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="86"/>
+      <c r="I6" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="110" t="s">
+        <v>563</v>
+      </c>
+      <c r="K6" s="114">
+        <v>6</v>
+      </c>
+      <c r="L6" s="115">
+        <v>6</v>
+      </c>
+      <c r="M6" s="115">
+        <v>4</v>
+      </c>
+      <c r="N6" s="115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" s="106" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="127" t="s">
+        <v>539</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="107">
+        <v>2016</v>
+      </c>
+      <c r="F7" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="86"/>
+      <c r="I7" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="110" t="s">
+        <v>563</v>
+      </c>
+      <c r="K7" s="111">
+        <v>7</v>
+      </c>
+      <c r="L7" s="112">
+        <v>7</v>
+      </c>
+      <c r="M7" s="112">
+        <v>2</v>
+      </c>
+      <c r="N7" s="112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" s="106" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="127" t="s">
+        <v>539</v>
+      </c>
+      <c r="B8" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="107">
+        <v>2018</v>
+      </c>
+      <c r="F8" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="86"/>
+      <c r="I8" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="110" t="s">
+        <v>563</v>
+      </c>
+      <c r="K8" s="111">
+        <v>7</v>
+      </c>
+      <c r="L8" s="112">
+        <v>7</v>
+      </c>
+      <c r="M8" s="112">
+        <v>2</v>
+      </c>
+      <c r="N8" s="112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" s="106" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="128" t="s">
+        <v>554</v>
+      </c>
+      <c r="B9" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="106" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" s="106" t="s">
+        <v>364</v>
+      </c>
+      <c r="E9" s="112">
+        <v>2016</v>
+      </c>
+      <c r="F9" s="106" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="109"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+    </row>
+    <row r="10" spans="1:45" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="129" t="s">
+        <v>538</v>
+      </c>
+      <c r="B10" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="116" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="117">
+        <v>2017</v>
+      </c>
+      <c r="F10" s="106" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="106"/>
+      <c r="I10" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="109"/>
+    </row>
+    <row r="11" spans="1:45" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="129" t="s">
+        <v>538</v>
+      </c>
+      <c r="B11" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="116" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" s="118">
+        <v>2017</v>
+      </c>
+      <c r="F11" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="119"/>
+      <c r="I11" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="110" t="s">
+        <v>563</v>
+      </c>
+      <c r="K11" s="120">
+        <v>6</v>
+      </c>
+      <c r="L11" s="121">
+        <v>6</v>
+      </c>
+      <c r="M11" s="121">
+        <v>3</v>
+      </c>
+      <c r="N11" s="121">
+        <v>4</v>
+      </c>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="86"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="86"/>
+      <c r="AJ11" s="86"/>
+      <c r="AK11" s="86"/>
+      <c r="AL11" s="86"/>
+      <c r="AM11" s="86"/>
+      <c r="AN11" s="86"/>
+      <c r="AO11" s="86"/>
+      <c r="AP11" s="86"/>
+      <c r="AQ11" s="86"/>
+      <c r="AR11" s="86"/>
+      <c r="AS11" s="86"/>
+    </row>
+    <row r="12" spans="1:45" s="87" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="129" t="s">
+        <v>538</v>
+      </c>
+      <c r="B12" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="116" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="118">
+        <v>2017</v>
+      </c>
+      <c r="F12" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="119"/>
+      <c r="I12" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="110" t="s">
+        <v>563</v>
+      </c>
+      <c r="K12" s="120">
+        <v>7</v>
+      </c>
+      <c r="L12" s="121">
+        <v>6</v>
+      </c>
+      <c r="M12" s="121">
+        <v>3</v>
+      </c>
+      <c r="N12" s="121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" s="87" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="129" t="s">
+        <v>538</v>
+      </c>
+      <c r="B13" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="116" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="100" t="s">
+        <v>302</v>
+      </c>
+      <c r="E13" s="118">
+        <v>2017</v>
+      </c>
+      <c r="F13" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="119"/>
+      <c r="I13" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="110" t="s">
+        <v>563</v>
+      </c>
+      <c r="K13" s="120">
+        <v>6</v>
+      </c>
+      <c r="L13" s="121">
+        <v>7</v>
+      </c>
+      <c r="M13" s="121">
+        <v>3</v>
+      </c>
+      <c r="N13" s="121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" s="87" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="129" t="s">
+        <v>538</v>
+      </c>
+      <c r="B14" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="116" t="s">
+        <v>355</v>
+      </c>
+      <c r="D14" s="100" t="s">
+        <v>356</v>
+      </c>
+      <c r="E14" s="118">
+        <v>2018</v>
+      </c>
+      <c r="F14" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="119"/>
+      <c r="I14" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="113" t="s">
+        <v>564</v>
+      </c>
+      <c r="K14" s="120">
+        <v>5</v>
+      </c>
+      <c r="L14" s="121">
+        <v>5</v>
+      </c>
+      <c r="M14" s="121">
+        <v>3</v>
+      </c>
+      <c r="N14" s="121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" s="87" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="129" t="s">
+        <v>538</v>
+      </c>
+      <c r="B15" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="116" t="s">
+        <v>369</v>
+      </c>
+      <c r="D15" s="100" t="s">
+        <v>370</v>
+      </c>
+      <c r="E15" s="118">
+        <v>2018</v>
+      </c>
+      <c r="F15" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="119"/>
+      <c r="I15" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="113" t="s">
+        <v>564</v>
+      </c>
+      <c r="K15" s="120">
+        <v>6</v>
+      </c>
+      <c r="L15" s="121">
+        <v>6</v>
+      </c>
+      <c r="M15" s="121">
+        <v>3</v>
+      </c>
+      <c r="N15" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="129" t="s">
+        <v>538</v>
+      </c>
+      <c r="B16" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="116" t="s">
+        <v>445</v>
+      </c>
+      <c r="D16" s="100" t="s">
+        <v>446</v>
+      </c>
+      <c r="E16" s="118">
+        <v>2017</v>
+      </c>
+      <c r="F16" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="119"/>
+      <c r="I16" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="113" t="s">
+        <v>564</v>
+      </c>
+      <c r="K16" s="120">
+        <v>7</v>
+      </c>
+      <c r="L16" s="121">
+        <v>4</v>
+      </c>
+      <c r="M16" s="121">
+        <v>5</v>
+      </c>
+      <c r="N16" s="121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="127" t="s">
+        <v>539</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="107">
+        <v>2015</v>
+      </c>
+      <c r="F17" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="123"/>
+      <c r="I17" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="109"/>
+      <c r="K17" s="111">
+        <v>6</v>
+      </c>
+      <c r="L17" s="112">
+        <v>6</v>
+      </c>
+      <c r="M17" s="112">
+        <v>4</v>
+      </c>
+      <c r="N17" s="112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="87" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="127" t="s">
+        <v>539</v>
+      </c>
+      <c r="B18" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D18" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="88">
+      <c r="E18" s="107">
+        <v>2016</v>
+      </c>
+      <c r="F18" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="123"/>
+      <c r="I18" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="109"/>
+      <c r="K18" s="111">
+        <v>7</v>
+      </c>
+      <c r="L18" s="112">
+        <v>6</v>
+      </c>
+      <c r="M18" s="112">
+        <v>4</v>
+      </c>
+      <c r="N18" s="112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="130" t="s">
+        <v>539</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>566</v>
+      </c>
+      <c r="C19" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="124">
         <v>2018</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F19" s="87" t="s">
+        <v>537</v>
+      </c>
+      <c r="G19" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="96"/>
-      <c r="I3" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="109" t="s">
-        <v>565</v>
-      </c>
-      <c r="K3" s="100">
-        <v>7</v>
-      </c>
-      <c r="L3" s="90">
-        <v>6</v>
-      </c>
-      <c r="M3" s="90">
-        <v>4</v>
-      </c>
-      <c r="N3" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="H19" s="87"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="130" t="s">
         <v>539</v>
       </c>
-      <c r="B4" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="102" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="88">
+      <c r="B20" s="87" t="s">
+        <v>566</v>
+      </c>
+      <c r="C20" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="124">
         <v>2018</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F20" s="87" t="s">
+        <v>537</v>
+      </c>
+      <c r="G20" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="111" t="s">
+      <c r="H20" s="87"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="130" t="s">
+        <v>539</v>
+      </c>
+      <c r="B21" s="87" t="s">
         <v>566</v>
       </c>
-      <c r="K4" s="100">
-        <v>7</v>
-      </c>
-      <c r="L4" s="90">
-        <v>6</v>
-      </c>
-      <c r="M4" s="90">
-        <v>3</v>
-      </c>
-      <c r="N4" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96" t="s">
+      <c r="C21" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="124">
+        <v>2018</v>
+      </c>
+      <c r="F21" s="87" t="s">
+        <v>537</v>
+      </c>
+      <c r="G21" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="87"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="130" t="s">
         <v>539</v>
       </c>
-      <c r="B5" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="102" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="88">
-        <v>2018</v>
-      </c>
-      <c r="F5" s="96" t="s">
+      <c r="B22" s="87" t="s">
+        <v>566</v>
+      </c>
+      <c r="C22" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="124">
+        <v>2017</v>
+      </c>
+      <c r="F22" s="87" t="s">
+        <v>537</v>
+      </c>
+      <c r="G22" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="98" t="s">
-        <v>553</v>
-      </c>
-      <c r="I5" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="109" t="s">
-        <v>565</v>
-      </c>
-      <c r="K5" s="100">
-        <v>6</v>
-      </c>
-      <c r="L5" s="90">
-        <v>6</v>
-      </c>
-      <c r="M5" s="90">
-        <v>3</v>
-      </c>
-      <c r="N5" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" s="97" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="96" t="s">
+      <c r="H22" s="87"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="130" t="s">
         <v>539</v>
       </c>
-      <c r="B6" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="88">
-        <v>2017</v>
-      </c>
-      <c r="F6" s="96" t="s">
-        <v>560</v>
-      </c>
-      <c r="G6" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="96"/>
-      <c r="I6" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="109" t="s">
-        <v>565</v>
-      </c>
-      <c r="K6" s="66">
-        <v>6</v>
-      </c>
-      <c r="L6" s="89">
-        <v>6</v>
-      </c>
-      <c r="M6" s="89">
-        <v>4</v>
-      </c>
-      <c r="N6" s="89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="96" t="s">
-        <v>539</v>
-      </c>
-      <c r="B7" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="102" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="88">
-        <v>2016</v>
-      </c>
-      <c r="F7" s="96" t="s">
+      <c r="B23" s="87" t="s">
+        <v>566</v>
+      </c>
+      <c r="C23" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="124">
+        <v>2019</v>
+      </c>
+      <c r="F23" s="87" t="s">
+        <v>537</v>
+      </c>
+      <c r="G23" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="96" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="109" t="s">
-        <v>565</v>
-      </c>
-      <c r="K7" s="100">
-        <v>7</v>
-      </c>
-      <c r="L7" s="90">
-        <v>7</v>
-      </c>
-      <c r="M7" s="90">
-        <v>2</v>
-      </c>
-      <c r="N7" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="96" t="s">
-        <v>539</v>
-      </c>
-      <c r="B8" s="96" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="88">
-        <v>2018</v>
-      </c>
-      <c r="F8" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="96"/>
-      <c r="I8" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="109" t="s">
-        <v>565</v>
-      </c>
-      <c r="K8" s="100">
-        <v>7</v>
-      </c>
-      <c r="L8" s="90">
-        <v>7</v>
-      </c>
-      <c r="M8" s="90">
-        <v>2</v>
-      </c>
-      <c r="N8" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="97" t="s">
-        <v>556</v>
-      </c>
-      <c r="B9" s="113" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="113" t="s">
-        <v>363</v>
-      </c>
-      <c r="D9" s="114" t="s">
-        <v>364</v>
-      </c>
-      <c r="E9" s="115">
-        <v>2016</v>
-      </c>
-      <c r="F9" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="113" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="113"/>
-      <c r="I9" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="116"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="97"/>
-      <c r="V9" s="97"/>
-      <c r="W9" s="97"/>
-      <c r="X9" s="97"/>
-      <c r="Y9" s="97"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="97"/>
-      <c r="AD9" s="97"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="97"/>
-      <c r="AG9" s="97"/>
-      <c r="AH9" s="97"/>
-      <c r="AI9" s="97"/>
-      <c r="AJ9" s="97"/>
-      <c r="AK9" s="97"/>
-      <c r="AL9" s="97"/>
-      <c r="AM9" s="97"/>
-      <c r="AN9" s="97"/>
-      <c r="AO9" s="97"/>
-      <c r="AP9" s="97"/>
-      <c r="AQ9" s="97"/>
-      <c r="AR9" s="97"/>
-      <c r="AS9" s="97"/>
-    </row>
-    <row r="10" spans="1:45" s="105" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="97" t="s">
-        <v>538</v>
-      </c>
-      <c r="B10" s="113" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="113" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="113" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="115">
-        <v>2017</v>
-      </c>
-      <c r="F10" s="113" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="113" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="113"/>
-      <c r="I10" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="116"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="96"/>
-      <c r="AF10" s="96"/>
-      <c r="AG10" s="96"/>
-      <c r="AH10" s="96"/>
-      <c r="AI10" s="96"/>
-      <c r="AJ10" s="96"/>
-      <c r="AK10" s="96"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="96"/>
-      <c r="AN10" s="96"/>
-      <c r="AO10" s="96"/>
-      <c r="AP10" s="96"/>
-      <c r="AQ10" s="96"/>
-      <c r="AR10" s="96"/>
-      <c r="AS10" s="96"/>
-    </row>
-    <row r="11" spans="1:45" s="105" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="104" t="s">
-        <v>538</v>
-      </c>
-      <c r="B11" s="104" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="104" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="112" t="s">
-        <v>236</v>
-      </c>
-      <c r="E11" s="50">
-        <v>2017</v>
-      </c>
-      <c r="F11" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="104" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="104"/>
-      <c r="I11" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="109" t="s">
-        <v>565</v>
-      </c>
-      <c r="K11" s="110">
-        <v>6</v>
-      </c>
-      <c r="L11" s="85">
-        <v>6</v>
-      </c>
-      <c r="M11" s="85">
-        <v>3</v>
-      </c>
-      <c r="N11" s="85">
-        <v>4</v>
-      </c>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="96"/>
-      <c r="AG11" s="96"/>
-      <c r="AH11" s="96"/>
-      <c r="AI11" s="96"/>
-      <c r="AJ11" s="96"/>
-      <c r="AK11" s="96"/>
-      <c r="AL11" s="96"/>
-      <c r="AM11" s="96"/>
-      <c r="AN11" s="96"/>
-      <c r="AO11" s="96"/>
-      <c r="AP11" s="96"/>
-      <c r="AQ11" s="96"/>
-      <c r="AR11" s="96"/>
-      <c r="AS11" s="96"/>
-    </row>
-    <row r="12" spans="1:45" s="106" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="104" t="s">
-        <v>538</v>
-      </c>
-      <c r="B12" s="104" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="104" t="s">
-        <v>249</v>
-      </c>
-      <c r="D12" s="112" t="s">
-        <v>250</v>
-      </c>
-      <c r="E12" s="50">
-        <v>2017</v>
-      </c>
-      <c r="F12" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="104" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="104"/>
-      <c r="I12" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="109" t="s">
-        <v>565</v>
-      </c>
-      <c r="K12" s="110">
-        <v>7</v>
-      </c>
-      <c r="L12" s="85">
-        <v>6</v>
-      </c>
-      <c r="M12" s="85">
-        <v>3</v>
-      </c>
-      <c r="N12" s="85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" s="106" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="104" t="s">
-        <v>538</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="104" t="s">
-        <v>301</v>
-      </c>
-      <c r="D13" s="112" t="s">
-        <v>302</v>
-      </c>
-      <c r="E13" s="50">
-        <v>2017</v>
-      </c>
-      <c r="F13" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="104" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="104"/>
-      <c r="I13" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="109" t="s">
-        <v>565</v>
-      </c>
-      <c r="K13" s="110">
-        <v>6</v>
-      </c>
-      <c r="L13" s="85">
-        <v>7</v>
-      </c>
-      <c r="M13" s="85">
-        <v>3</v>
-      </c>
-      <c r="N13" s="85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" s="106" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="104" t="s">
-        <v>538</v>
-      </c>
-      <c r="B14" s="104" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="104" t="s">
-        <v>355</v>
-      </c>
-      <c r="D14" s="112" t="s">
-        <v>356</v>
-      </c>
-      <c r="E14" s="50">
-        <v>2018</v>
-      </c>
-      <c r="F14" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="104" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="104"/>
-      <c r="I14" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" s="111" t="s">
-        <v>566</v>
-      </c>
-      <c r="K14" s="110">
-        <v>5</v>
-      </c>
-      <c r="L14" s="85">
-        <v>5</v>
-      </c>
-      <c r="M14" s="85">
-        <v>3</v>
-      </c>
-      <c r="N14" s="85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" s="106" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="104" t="s">
-        <v>538</v>
-      </c>
-      <c r="B15" s="104" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="104" t="s">
-        <v>369</v>
-      </c>
-      <c r="D15" s="112" t="s">
-        <v>370</v>
-      </c>
-      <c r="E15" s="50">
-        <v>2018</v>
-      </c>
-      <c r="F15" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="104" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="104"/>
-      <c r="I15" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="111" t="s">
-        <v>566</v>
-      </c>
-      <c r="K15" s="110">
-        <v>6</v>
-      </c>
-      <c r="L15" s="85">
-        <v>6</v>
-      </c>
-      <c r="M15" s="85">
-        <v>3</v>
-      </c>
-      <c r="N15" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" s="96" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="104" t="s">
-        <v>538</v>
-      </c>
-      <c r="B16" s="104" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="104" t="s">
-        <v>445</v>
-      </c>
-      <c r="D16" s="112" t="s">
-        <v>446</v>
-      </c>
-      <c r="E16" s="50">
-        <v>2017</v>
-      </c>
-      <c r="F16" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="104" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="104"/>
-      <c r="I16" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="111" t="s">
-        <v>566</v>
-      </c>
-      <c r="K16" s="110">
-        <v>7</v>
-      </c>
-      <c r="L16" s="85">
-        <v>4</v>
-      </c>
-      <c r="M16" s="85">
-        <v>5</v>
-      </c>
-      <c r="N16" s="85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="96" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="96" t="s">
-        <v>539</v>
-      </c>
-      <c r="B17" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="88">
-        <v>2015</v>
-      </c>
-      <c r="F17" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="103"/>
-      <c r="I17" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="99"/>
-      <c r="K17" s="100">
-        <v>6</v>
-      </c>
-      <c r="L17" s="90">
-        <v>6</v>
-      </c>
-      <c r="M17" s="90">
-        <v>4</v>
-      </c>
-      <c r="N17" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="106" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="96" t="s">
-        <v>539</v>
-      </c>
-      <c r="B18" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="88">
-        <v>2016</v>
-      </c>
-      <c r="F18" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="103"/>
-      <c r="I18" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="99"/>
-      <c r="K18" s="100">
-        <v>7</v>
-      </c>
-      <c r="L18" s="90">
-        <v>6</v>
-      </c>
-      <c r="M18" s="90">
-        <v>4</v>
-      </c>
-      <c r="N18" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="106" t="s">
-        <v>539</v>
-      </c>
-      <c r="B19" s="106" t="s">
-        <v>568</v>
-      </c>
-      <c r="C19" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="87">
-        <v>2018</v>
-      </c>
-      <c r="F19" s="106" t="s">
-        <v>537</v>
-      </c>
-      <c r="G19" s="106" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="106"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="106" t="s">
-        <v>539</v>
-      </c>
-      <c r="B20" s="106" t="s">
-        <v>568</v>
-      </c>
-      <c r="C20" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="87">
-        <v>2018</v>
-      </c>
-      <c r="F20" s="106" t="s">
-        <v>537</v>
-      </c>
-      <c r="G20" s="106" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="106"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="106" t="s">
-        <v>539</v>
-      </c>
-      <c r="B21" s="106" t="s">
-        <v>568</v>
-      </c>
-      <c r="C21" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="107" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="87">
-        <v>2018</v>
-      </c>
-      <c r="F21" s="106" t="s">
-        <v>537</v>
-      </c>
-      <c r="G21" s="106" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="106"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="106" t="s">
-        <v>539</v>
-      </c>
-      <c r="B22" s="106" t="s">
-        <v>568</v>
-      </c>
-      <c r="C22" s="106" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="106" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="87">
-        <v>2017</v>
-      </c>
-      <c r="F22" s="106" t="s">
-        <v>537</v>
-      </c>
-      <c r="G22" s="106" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="106"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="106" t="s">
-        <v>539</v>
-      </c>
-      <c r="B23" s="106" t="s">
-        <v>568</v>
-      </c>
-      <c r="C23" s="106" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="106" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="87">
-        <v>2019</v>
-      </c>
-      <c r="F23" s="106" t="s">
-        <v>537</v>
-      </c>
-      <c r="G23" s="106" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="106"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N23" xr:uid="{48964EBD-FBE9-433B-8AE9-6BDEB6875024}">
@@ -3775,7 +3722,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E1" s="66" t="s">
         <v>72</v>
@@ -3790,7 +3737,7 @@
         <v>71</v>
       </c>
       <c r="I1" s="72" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>73</v>
@@ -88717,7 +88664,7 @@
   <dimension ref="B1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -88730,35 +88677,35 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="88" t="s">
         <v>510</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="90" t="s">
         <v>509</v>
       </c>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="91" t="s">
         <v>508</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="92" t="s">
         <v>507</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="117" t="s">
+      <c r="F2" s="93"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="88" t="s">
         <v>506</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="124" t="s">
+      <c r="I2" s="90"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="95" t="s">
         <v>505</v>
       </c>
-      <c r="L2" s="125"/>
-      <c r="M2" s="126"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
     </row>
     <row r="3" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="118"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="127"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="38" t="s">
         <v>504</v>
       </c>
@@ -88980,7 +88927,7 @@
     </row>
     <row r="5" spans="1:10" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="53" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C5" s="49" t="s">
         <v>6</v>
@@ -89009,7 +88956,7 @@
     </row>
     <row r="6" spans="1:10" s="53" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="53" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C6" s="49" t="s">
         <v>140</v>
@@ -89469,7 +89416,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="77" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -89490,13 +89437,13 @@
         <v>67</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K1" s="66" t="s">
         <v>72</v>
@@ -89513,7 +89460,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="78" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -89538,7 +89485,7 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="78" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -89563,7 +89510,7 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="78" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -89588,7 +89535,7 @@
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="78" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -89613,7 +89560,7 @@
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="78" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -89638,7 +89585,7 @@
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="78" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -89663,7 +89610,7 @@
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="78" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
@@ -89674,7 +89621,7 @@
       <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="86">
+      <c r="E8" s="85">
         <v>2018</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -89688,7 +89635,7 @@
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="78" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -89713,7 +89660,7 @@
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="78" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -89738,7 +89685,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="78" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -89761,7 +89708,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="78" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -89784,7 +89731,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="78" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -89807,7 +89754,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="78" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -89830,7 +89777,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="78" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -89853,7 +89800,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="78" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -89876,7 +89823,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="78" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>

--- a/programs/addtoWIDE_countries.xlsx
+++ b/programs/addtoWIDE_countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosa_V\Dropbox\WIDE\WIDE\programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0073767F-7FB2-4AC4-AEB4-4C7804660A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A562764-B464-4B1E-AB42-6CD621C7A198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="270" windowWidth="17640" windowHeight="8930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6754" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6756" uniqueCount="571">
   <si>
     <t>iso_code3</t>
   </si>
@@ -1753,6 +1753,9 @@
     <t>iso_
 code3</t>
   </si>
+  <si>
+    <t>not a priority</t>
+  </si>
 </sst>
 </file>
 
@@ -2122,7 +2125,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2353,42 +2356,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2432,9 +2399,6 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2464,6 +2428,65 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2746,77 +2769,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857B6EF3-D424-4F01-94B9-5999C6333037}">
-  <dimension ref="A1:AS23"/>
+  <dimension ref="A1:AT23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E23"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" style="123" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" style="123" customWidth="1"/>
-    <col min="3" max="3" width="5.6328125" style="123" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" style="123" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="126"/>
-    <col min="6" max="6" width="19.6328125" style="123" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" style="123" customWidth="1"/>
-    <col min="8" max="8" width="13" style="123" customWidth="1"/>
-    <col min="9" max="9" width="7" style="110" customWidth="1"/>
-    <col min="10" max="10" width="19" style="110" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="123"/>
+    <col min="1" max="1" width="9.36328125" style="110" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" style="110" customWidth="1"/>
+    <col min="3" max="3" width="5.6328125" style="110" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" style="110" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="113"/>
+    <col min="6" max="6" width="19.6328125" style="110" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" style="110" customWidth="1"/>
+    <col min="8" max="8" width="13" style="110" customWidth="1"/>
+    <col min="9" max="9" width="7" style="98" customWidth="1"/>
+    <col min="10" max="10" width="19" style="98" customWidth="1"/>
+    <col min="11" max="14" width="8.7265625" style="110"/>
+    <col min="15" max="46" width="8.7265625" style="86"/>
+    <col min="47" max="16384" width="8.7265625" style="110"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="101" customFormat="1" ht="65" x14ac:dyDescent="0.35">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:46" s="89" customFormat="1" ht="65" x14ac:dyDescent="0.35">
+      <c r="A1" s="90" t="s">
         <v>555</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="90" t="s">
         <v>569</v>
       </c>
-      <c r="D1" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="102" t="s">
+      <c r="D1" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="89" t="s">
         <v>561</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="90" t="s">
         <v>565</v>
       </c>
-      <c r="J1" s="101" t="s">
+      <c r="J1" s="89" t="s">
         <v>559</v>
       </c>
-      <c r="K1" s="104" t="s">
+      <c r="K1" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="105" t="s">
+      <c r="L1" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="105" t="s">
+      <c r="M1" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="105" t="s">
+      <c r="N1" s="93" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:45" s="106" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="127" t="s">
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+    </row>
+    <row r="2" spans="1:46" s="94" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="114" t="s">
         <v>539</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="94" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="86" t="s">
@@ -2825,7 +2882,7 @@
       <c r="D2" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="107">
+      <c r="E2" s="95">
         <v>2018</v>
       </c>
       <c r="F2" s="86" t="s">
@@ -2834,30 +2891,30 @@
       <c r="G2" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="96" t="s">
         <v>567</v>
       </c>
-      <c r="I2" s="109" t="s">
+      <c r="I2" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="110" t="s">
+      <c r="J2" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="K2" s="111">
-        <v>6</v>
-      </c>
-      <c r="L2" s="112">
-        <v>6</v>
-      </c>
-      <c r="M2" s="112">
-        <v>4</v>
-      </c>
-      <c r="N2" s="112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" s="106" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="127" t="s">
+      <c r="K2" s="99">
+        <v>6</v>
+      </c>
+      <c r="L2" s="100">
+        <v>6</v>
+      </c>
+      <c r="M2" s="100">
+        <v>4</v>
+      </c>
+      <c r="N2" s="100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" s="94" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="114" t="s">
         <v>539</v>
       </c>
       <c r="B3" s="86" t="s">
@@ -2869,7 +2926,7 @@
       <c r="D3" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="107">
+      <c r="E3" s="95">
         <v>2018</v>
       </c>
       <c r="F3" s="86" t="s">
@@ -2879,27 +2936,27 @@
         <v>60</v>
       </c>
       <c r="H3" s="86"/>
-      <c r="I3" s="109" t="s">
+      <c r="I3" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="110" t="s">
+      <c r="J3" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="K3" s="111">
+      <c r="K3" s="99">
         <v>7</v>
       </c>
-      <c r="L3" s="112">
-        <v>6</v>
-      </c>
-      <c r="M3" s="112">
-        <v>4</v>
-      </c>
-      <c r="N3" s="112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" s="106" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="127" t="s">
+      <c r="L3" s="100">
+        <v>6</v>
+      </c>
+      <c r="M3" s="100">
+        <v>4</v>
+      </c>
+      <c r="N3" s="100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" s="94" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="114" t="s">
         <v>539</v>
       </c>
       <c r="B4" s="86" t="s">
@@ -2911,7 +2968,7 @@
       <c r="D4" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="107">
+      <c r="E4" s="95">
         <v>2018</v>
       </c>
       <c r="F4" s="86" t="s">
@@ -2921,27 +2978,27 @@
         <v>60</v>
       </c>
       <c r="H4" s="86"/>
-      <c r="I4" s="109" t="s">
+      <c r="I4" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="113" t="s">
+      <c r="J4" s="101" t="s">
         <v>564</v>
       </c>
-      <c r="K4" s="111">
+      <c r="K4" s="99">
         <v>7</v>
       </c>
-      <c r="L4" s="112">
-        <v>6</v>
-      </c>
-      <c r="M4" s="112">
-        <v>3</v>
-      </c>
-      <c r="N4" s="112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" s="106" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="127" t="s">
+      <c r="L4" s="100">
+        <v>6</v>
+      </c>
+      <c r="M4" s="100">
+        <v>3</v>
+      </c>
+      <c r="N4" s="100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" s="94" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="114" t="s">
         <v>539</v>
       </c>
       <c r="B5" s="86" t="s">
@@ -2953,7 +3010,7 @@
       <c r="D5" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="107">
+      <c r="E5" s="95">
         <v>2018</v>
       </c>
       <c r="F5" s="86" t="s">
@@ -2962,30 +3019,30 @@
       <c r="G5" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="96" t="s">
         <v>568</v>
       </c>
-      <c r="I5" s="109" t="s">
+      <c r="I5" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="110" t="s">
+      <c r="J5" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="K5" s="111">
-        <v>6</v>
-      </c>
-      <c r="L5" s="112">
-        <v>6</v>
-      </c>
-      <c r="M5" s="112">
-        <v>3</v>
-      </c>
-      <c r="N5" s="112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" s="106" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="127" t="s">
+      <c r="K5" s="99">
+        <v>6</v>
+      </c>
+      <c r="L5" s="100">
+        <v>6</v>
+      </c>
+      <c r="M5" s="100">
+        <v>3</v>
+      </c>
+      <c r="N5" s="100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" s="94" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="114" t="s">
         <v>539</v>
       </c>
       <c r="B6" s="86" t="s">
@@ -2997,7 +3054,7 @@
       <c r="D6" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="107">
+      <c r="E6" s="95">
         <v>2017</v>
       </c>
       <c r="F6" s="86" t="s">
@@ -3007,27 +3064,27 @@
         <v>62</v>
       </c>
       <c r="H6" s="86"/>
-      <c r="I6" s="109" t="s">
+      <c r="I6" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="110" t="s">
+      <c r="J6" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="K6" s="114">
-        <v>6</v>
-      </c>
-      <c r="L6" s="115">
-        <v>6</v>
-      </c>
-      <c r="M6" s="115">
-        <v>4</v>
-      </c>
-      <c r="N6" s="115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" s="106" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="127" t="s">
+      <c r="K6" s="102">
+        <v>6</v>
+      </c>
+      <c r="L6" s="103">
+        <v>6</v>
+      </c>
+      <c r="M6" s="103">
+        <v>4</v>
+      </c>
+      <c r="N6" s="103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" s="94" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="114" t="s">
         <v>539</v>
       </c>
       <c r="B7" s="86" t="s">
@@ -3039,7 +3096,7 @@
       <c r="D7" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="107">
+      <c r="E7" s="95">
         <v>2016</v>
       </c>
       <c r="F7" s="86" t="s">
@@ -3049,27 +3106,27 @@
         <v>61</v>
       </c>
       <c r="H7" s="86"/>
-      <c r="I7" s="109" t="s">
+      <c r="I7" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="110" t="s">
+      <c r="J7" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="K7" s="111">
+      <c r="K7" s="99">
         <v>7</v>
       </c>
-      <c r="L7" s="112">
+      <c r="L7" s="100">
         <v>7</v>
       </c>
-      <c r="M7" s="112">
-        <v>2</v>
-      </c>
-      <c r="N7" s="112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" s="106" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="127" t="s">
+      <c r="M7" s="100">
+        <v>2</v>
+      </c>
+      <c r="N7" s="100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" s="94" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="114" t="s">
         <v>539</v>
       </c>
       <c r="B8" s="86" t="s">
@@ -3081,7 +3138,7 @@
       <c r="D8" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="107">
+      <c r="E8" s="95">
         <v>2018</v>
       </c>
       <c r="F8" s="86" t="s">
@@ -3091,123 +3148,157 @@
         <v>60</v>
       </c>
       <c r="H8" s="86"/>
-      <c r="I8" s="109" t="s">
+      <c r="I8" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="110" t="s">
+      <c r="J8" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="K8" s="111">
+      <c r="K8" s="99">
         <v>7</v>
       </c>
-      <c r="L8" s="112">
+      <c r="L8" s="100">
         <v>7</v>
       </c>
-      <c r="M8" s="112">
-        <v>2</v>
-      </c>
-      <c r="N8" s="112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" s="106" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="128" t="s">
+      <c r="M8" s="100">
+        <v>2</v>
+      </c>
+      <c r="N8" s="100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" s="94" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="115" t="s">
         <v>554</v>
       </c>
-      <c r="B9" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="106" t="s">
+      <c r="B9" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="94" t="s">
         <v>363</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="94" t="s">
         <v>364</v>
       </c>
-      <c r="E9" s="112">
+      <c r="E9" s="100">
         <v>2016</v>
       </c>
-      <c r="F9" s="106" t="s">
+      <c r="F9" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="109" t="s">
+      <c r="I9" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="109"/>
+      <c r="J9" s="97"/>
       <c r="K9" s="86"/>
       <c r="L9" s="86"/>
       <c r="M9" s="86"/>
       <c r="N9" s="86"/>
     </row>
-    <row r="10" spans="1:45" s="86" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="129" t="s">
+    <row r="10" spans="1:46" s="134" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="130" t="s">
         <v>538</v>
       </c>
-      <c r="B10" s="116" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="116" t="s">
+      <c r="B10" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="117">
+      <c r="E10" s="132">
         <v>2017</v>
       </c>
-      <c r="F10" s="106" t="s">
+      <c r="F10" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="106" t="s">
+      <c r="G10" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="109" t="s">
+      <c r="H10" s="131" t="s">
+        <v>570</v>
+      </c>
+      <c r="I10" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="109"/>
-    </row>
-    <row r="11" spans="1:45" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="129" t="s">
+      <c r="J10" s="133"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="86"/>
+      <c r="AJ10" s="86"/>
+      <c r="AK10" s="86"/>
+      <c r="AL10" s="86"/>
+      <c r="AM10" s="86"/>
+      <c r="AN10" s="86"/>
+      <c r="AO10" s="86"/>
+      <c r="AP10" s="86"/>
+      <c r="AQ10" s="86"/>
+      <c r="AR10" s="86"/>
+      <c r="AS10" s="86"/>
+      <c r="AT10" s="86"/>
+    </row>
+    <row r="11" spans="1:46" s="109" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="116" t="s">
         <v>538</v>
       </c>
-      <c r="B11" s="116" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="116" t="s">
+      <c r="B11" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="104" t="s">
         <v>235</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="88" t="s">
         <v>236</v>
       </c>
-      <c r="E11" s="118">
+      <c r="E11" s="105">
         <v>2017</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="109" t="s">
+      <c r="H11" s="106"/>
+      <c r="I11" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="110" t="s">
+      <c r="J11" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="K11" s="120">
-        <v>6</v>
-      </c>
-      <c r="L11" s="121">
-        <v>6</v>
-      </c>
-      <c r="M11" s="121">
-        <v>3</v>
-      </c>
-      <c r="N11" s="121">
+      <c r="K11" s="107">
+        <v>6</v>
+      </c>
+      <c r="L11" s="108">
+        <v>6</v>
+      </c>
+      <c r="M11" s="108">
+        <v>3</v>
+      </c>
+      <c r="N11" s="108">
         <v>4</v>
       </c>
       <c r="O11" s="86"/>
@@ -3241,219 +3332,382 @@
       <c r="AQ11" s="86"/>
       <c r="AR11" s="86"/>
       <c r="AS11" s="86"/>
-    </row>
-    <row r="12" spans="1:45" s="87" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="129" t="s">
+      <c r="AT11" s="86"/>
+    </row>
+    <row r="12" spans="1:46" s="87" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="116" t="s">
         <v>538</v>
       </c>
-      <c r="B12" s="116" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="116" t="s">
+      <c r="B12" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="88" t="s">
         <v>250</v>
       </c>
-      <c r="E12" s="118">
+      <c r="E12" s="105">
         <v>2017</v>
       </c>
-      <c r="F12" s="119" t="s">
+      <c r="F12" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="119" t="s">
+      <c r="G12" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="119"/>
-      <c r="I12" s="109" t="s">
+      <c r="H12" s="106"/>
+      <c r="I12" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="110" t="s">
+      <c r="J12" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="K12" s="120">
+      <c r="K12" s="107">
         <v>7</v>
       </c>
-      <c r="L12" s="121">
-        <v>6</v>
-      </c>
-      <c r="M12" s="121">
-        <v>3</v>
-      </c>
-      <c r="N12" s="121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" s="87" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="129" t="s">
+      <c r="L12" s="108">
+        <v>6</v>
+      </c>
+      <c r="M12" s="108">
+        <v>3</v>
+      </c>
+      <c r="N12" s="108">
+        <v>3</v>
+      </c>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="86"/>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="86"/>
+      <c r="AI12" s="86"/>
+      <c r="AJ12" s="86"/>
+      <c r="AK12" s="86"/>
+      <c r="AL12" s="86"/>
+      <c r="AM12" s="86"/>
+      <c r="AN12" s="86"/>
+      <c r="AO12" s="86"/>
+      <c r="AP12" s="86"/>
+      <c r="AQ12" s="86"/>
+      <c r="AR12" s="86"/>
+      <c r="AS12" s="86"/>
+      <c r="AT12" s="86"/>
+    </row>
+    <row r="13" spans="1:46" s="87" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="116" t="s">
         <v>538</v>
       </c>
-      <c r="B13" s="116" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="116" t="s">
+      <c r="B13" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="104" t="s">
         <v>301</v>
       </c>
-      <c r="D13" s="100" t="s">
+      <c r="D13" s="88" t="s">
         <v>302</v>
       </c>
-      <c r="E13" s="118">
+      <c r="E13" s="105">
         <v>2017</v>
       </c>
-      <c r="F13" s="119" t="s">
+      <c r="F13" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="119" t="s">
+      <c r="G13" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="119"/>
-      <c r="I13" s="109" t="s">
+      <c r="H13" s="106"/>
+      <c r="I13" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="J13" s="110" t="s">
+      <c r="J13" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="K13" s="120">
-        <v>6</v>
-      </c>
-      <c r="L13" s="121">
+      <c r="K13" s="107">
+        <v>6</v>
+      </c>
+      <c r="L13" s="108">
         <v>7</v>
       </c>
-      <c r="M13" s="121">
-        <v>3</v>
-      </c>
-      <c r="N13" s="121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" s="87" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="129" t="s">
+      <c r="M13" s="108">
+        <v>3</v>
+      </c>
+      <c r="N13" s="108">
+        <v>2</v>
+      </c>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="86"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="86"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="86"/>
+      <c r="AF13" s="86"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="86"/>
+      <c r="AJ13" s="86"/>
+      <c r="AK13" s="86"/>
+      <c r="AL13" s="86"/>
+      <c r="AM13" s="86"/>
+      <c r="AN13" s="86"/>
+      <c r="AO13" s="86"/>
+      <c r="AP13" s="86"/>
+      <c r="AQ13" s="86"/>
+      <c r="AR13" s="86"/>
+      <c r="AS13" s="86"/>
+      <c r="AT13" s="86"/>
+    </row>
+    <row r="14" spans="1:46" s="87" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="116" t="s">
         <v>538</v>
       </c>
-      <c r="B14" s="116" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="116" t="s">
+      <c r="B14" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="D14" s="100" t="s">
+      <c r="D14" s="88" t="s">
         <v>356</v>
       </c>
-      <c r="E14" s="118">
+      <c r="E14" s="105">
         <v>2018</v>
       </c>
-      <c r="F14" s="119" t="s">
+      <c r="F14" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="119"/>
-      <c r="I14" s="109" t="s">
+      <c r="H14" s="106"/>
+      <c r="I14" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="113" t="s">
+      <c r="J14" s="101" t="s">
         <v>564</v>
       </c>
-      <c r="K14" s="120">
-        <v>5</v>
-      </c>
-      <c r="L14" s="121">
-        <v>5</v>
-      </c>
-      <c r="M14" s="121">
-        <v>3</v>
-      </c>
-      <c r="N14" s="121">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" s="87" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="129" t="s">
+      <c r="K14" s="107">
+        <v>5</v>
+      </c>
+      <c r="L14" s="108">
+        <v>5</v>
+      </c>
+      <c r="M14" s="108">
+        <v>3</v>
+      </c>
+      <c r="N14" s="108">
+        <v>4</v>
+      </c>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="86"/>
+      <c r="AJ14" s="86"/>
+      <c r="AK14" s="86"/>
+      <c r="AL14" s="86"/>
+      <c r="AM14" s="86"/>
+      <c r="AN14" s="86"/>
+      <c r="AO14" s="86"/>
+      <c r="AP14" s="86"/>
+      <c r="AQ14" s="86"/>
+      <c r="AR14" s="86"/>
+      <c r="AS14" s="86"/>
+      <c r="AT14" s="86"/>
+    </row>
+    <row r="15" spans="1:46" s="87" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="116" t="s">
         <v>538</v>
       </c>
-      <c r="B15" s="116" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="116" t="s">
+      <c r="B15" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="104" t="s">
         <v>369</v>
       </c>
-      <c r="D15" s="100" t="s">
+      <c r="D15" s="88" t="s">
         <v>370</v>
       </c>
-      <c r="E15" s="118">
+      <c r="E15" s="105">
         <v>2018</v>
       </c>
-      <c r="F15" s="119" t="s">
+      <c r="F15" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="119" t="s">
+      <c r="G15" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="119"/>
-      <c r="I15" s="109" t="s">
+      <c r="H15" s="106"/>
+      <c r="I15" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="113" t="s">
+      <c r="J15" s="101" t="s">
         <v>564</v>
       </c>
-      <c r="K15" s="120">
-        <v>6</v>
-      </c>
-      <c r="L15" s="121">
-        <v>6</v>
-      </c>
-      <c r="M15" s="121">
-        <v>3</v>
-      </c>
-      <c r="N15" s="121">
+      <c r="K15" s="107">
+        <v>6</v>
+      </c>
+      <c r="L15" s="108">
+        <v>6</v>
+      </c>
+      <c r="M15" s="108">
+        <v>3</v>
+      </c>
+      <c r="N15" s="108">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:45" s="86" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="129" t="s">
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="86"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="86"/>
+      <c r="AD15" s="86"/>
+      <c r="AE15" s="86"/>
+      <c r="AF15" s="86"/>
+      <c r="AG15" s="86"/>
+      <c r="AH15" s="86"/>
+      <c r="AI15" s="86"/>
+      <c r="AJ15" s="86"/>
+      <c r="AK15" s="86"/>
+      <c r="AL15" s="86"/>
+      <c r="AM15" s="86"/>
+      <c r="AN15" s="86"/>
+      <c r="AO15" s="86"/>
+      <c r="AP15" s="86"/>
+      <c r="AQ15" s="86"/>
+      <c r="AR15" s="86"/>
+      <c r="AS15" s="86"/>
+      <c r="AT15" s="86"/>
+    </row>
+    <row r="16" spans="1:46" s="134" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="130" t="s">
         <v>538</v>
       </c>
-      <c r="B16" s="116" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="116" t="s">
+      <c r="B16" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="131" t="s">
         <v>445</v>
       </c>
-      <c r="D16" s="100" t="s">
+      <c r="D16" s="135" t="s">
         <v>446</v>
       </c>
-      <c r="E16" s="118">
+      <c r="E16" s="136">
         <v>2017</v>
       </c>
-      <c r="F16" s="119" t="s">
+      <c r="F16" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="119" t="s">
+      <c r="G16" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="119"/>
-      <c r="I16" s="109" t="s">
+      <c r="H16" s="131" t="s">
+        <v>570</v>
+      </c>
+      <c r="I16" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="113" t="s">
+      <c r="J16" s="133" t="s">
         <v>564</v>
       </c>
-      <c r="K16" s="120">
+      <c r="K16" s="137">
         <v>7</v>
       </c>
-      <c r="L16" s="121">
-        <v>4</v>
-      </c>
-      <c r="M16" s="121">
-        <v>5</v>
-      </c>
-      <c r="N16" s="121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="86" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="127" t="s">
+      <c r="L16" s="132">
+        <v>4</v>
+      </c>
+      <c r="M16" s="132">
+        <v>5</v>
+      </c>
+      <c r="N16" s="132">
+        <v>2</v>
+      </c>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="86"/>
+      <c r="X16" s="86"/>
+      <c r="Y16" s="86"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="86"/>
+      <c r="AB16" s="86"/>
+      <c r="AC16" s="86"/>
+      <c r="AD16" s="86"/>
+      <c r="AE16" s="86"/>
+      <c r="AF16" s="86"/>
+      <c r="AG16" s="86"/>
+      <c r="AH16" s="86"/>
+      <c r="AI16" s="86"/>
+      <c r="AJ16" s="86"/>
+      <c r="AK16" s="86"/>
+      <c r="AL16" s="86"/>
+      <c r="AM16" s="86"/>
+      <c r="AN16" s="86"/>
+      <c r="AO16" s="86"/>
+      <c r="AP16" s="86"/>
+      <c r="AQ16" s="86"/>
+      <c r="AR16" s="86"/>
+      <c r="AS16" s="86"/>
+      <c r="AT16" s="86"/>
+    </row>
+    <row r="17" spans="1:46" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="114" t="s">
         <v>539</v>
       </c>
       <c r="B17" s="86" t="s">
@@ -3465,7 +3719,7 @@
       <c r="D17" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="107">
+      <c r="E17" s="95">
         <v>2015</v>
       </c>
       <c r="F17" s="86" t="s">
@@ -3474,26 +3728,26 @@
       <c r="G17" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="123"/>
-      <c r="I17" s="109" t="s">
+      <c r="H17" s="110"/>
+      <c r="I17" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="109"/>
-      <c r="K17" s="111">
-        <v>6</v>
-      </c>
-      <c r="L17" s="112">
-        <v>6</v>
-      </c>
-      <c r="M17" s="112">
-        <v>4</v>
-      </c>
-      <c r="N17" s="112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="87" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="127" t="s">
+      <c r="J17" s="97"/>
+      <c r="K17" s="99">
+        <v>6</v>
+      </c>
+      <c r="L17" s="100">
+        <v>6</v>
+      </c>
+      <c r="M17" s="100">
+        <v>4</v>
+      </c>
+      <c r="N17" s="100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" s="87" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="114" t="s">
         <v>539</v>
       </c>
       <c r="B18" s="86" t="s">
@@ -3505,7 +3759,7 @@
       <c r="D18" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="107">
+      <c r="E18" s="95">
         <v>2016</v>
       </c>
       <c r="F18" s="86" t="s">
@@ -3514,26 +3768,58 @@
       <c r="G18" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="123"/>
-      <c r="I18" s="109" t="s">
+      <c r="H18" s="110"/>
+      <c r="I18" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="109"/>
-      <c r="K18" s="111">
+      <c r="J18" s="97"/>
+      <c r="K18" s="99">
         <v>7</v>
       </c>
-      <c r="L18" s="112">
-        <v>6</v>
-      </c>
-      <c r="M18" s="112">
-        <v>4</v>
-      </c>
-      <c r="N18" s="112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="130" t="s">
+      <c r="L18" s="100">
+        <v>6</v>
+      </c>
+      <c r="M18" s="100">
+        <v>4</v>
+      </c>
+      <c r="N18" s="100">
+        <v>3</v>
+      </c>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="86"/>
+      <c r="W18" s="86"/>
+      <c r="X18" s="86"/>
+      <c r="Y18" s="86"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="86"/>
+      <c r="AB18" s="86"/>
+      <c r="AC18" s="86"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="86"/>
+      <c r="AF18" s="86"/>
+      <c r="AG18" s="86"/>
+      <c r="AH18" s="86"/>
+      <c r="AI18" s="86"/>
+      <c r="AJ18" s="86"/>
+      <c r="AK18" s="86"/>
+      <c r="AL18" s="86"/>
+      <c r="AM18" s="86"/>
+      <c r="AN18" s="86"/>
+      <c r="AO18" s="86"/>
+      <c r="AP18" s="86"/>
+      <c r="AQ18" s="86"/>
+      <c r="AR18" s="86"/>
+      <c r="AS18" s="86"/>
+      <c r="AT18" s="86"/>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A19" s="117" t="s">
         <v>539</v>
       </c>
       <c r="B19" s="87" t="s">
@@ -3545,7 +3831,7 @@
       <c r="D19" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="124">
+      <c r="E19" s="111">
         <v>2018</v>
       </c>
       <c r="F19" s="87" t="s">
@@ -3555,15 +3841,15 @@
         <v>63</v>
       </c>
       <c r="H19" s="87"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
       <c r="K19" s="87"/>
       <c r="L19" s="87"/>
       <c r="M19" s="87"/>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="130" t="s">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A20" s="117" t="s">
         <v>539</v>
       </c>
       <c r="B20" s="87" t="s">
@@ -3575,7 +3861,7 @@
       <c r="D20" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="124">
+      <c r="E20" s="111">
         <v>2018</v>
       </c>
       <c r="F20" s="87" t="s">
@@ -3585,15 +3871,15 @@
         <v>63</v>
       </c>
       <c r="H20" s="87"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
       <c r="K20" s="87"/>
       <c r="L20" s="87"/>
       <c r="M20" s="87"/>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="130" t="s">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A21" s="117" t="s">
         <v>539</v>
       </c>
       <c r="B21" s="87" t="s">
@@ -3605,7 +3891,7 @@
       <c r="D21" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="124">
+      <c r="E21" s="111">
         <v>2018</v>
       </c>
       <c r="F21" s="87" t="s">
@@ -3615,15 +3901,15 @@
         <v>63</v>
       </c>
       <c r="H21" s="87"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="125"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
       <c r="K21" s="87"/>
       <c r="L21" s="87"/>
       <c r="M21" s="87"/>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="130" t="s">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A22" s="117" t="s">
         <v>539</v>
       </c>
       <c r="B22" s="87" t="s">
@@ -3635,7 +3921,7 @@
       <c r="D22" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="124">
+      <c r="E22" s="111">
         <v>2017</v>
       </c>
       <c r="F22" s="87" t="s">
@@ -3645,15 +3931,15 @@
         <v>63</v>
       </c>
       <c r="H22" s="87"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
       <c r="K22" s="87"/>
       <c r="L22" s="87"/>
       <c r="M22" s="87"/>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="130" t="s">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A23" s="117" t="s">
         <v>539</v>
       </c>
       <c r="B23" s="87" t="s">
@@ -3665,7 +3951,7 @@
       <c r="D23" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="124">
+      <c r="E23" s="111">
         <v>2019</v>
       </c>
       <c r="F23" s="87" t="s">
@@ -3675,8 +3961,8 @@
         <v>63</v>
       </c>
       <c r="H23" s="87"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="125"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
       <c r="K23" s="87"/>
       <c r="L23" s="87"/>
       <c r="M23" s="87"/>
@@ -88677,35 +88963,35 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="118" t="s">
         <v>510</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="120" t="s">
         <v>509</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="121" t="s">
         <v>508</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="122" t="s">
         <v>507</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="88" t="s">
+      <c r="F2" s="123"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="118" t="s">
         <v>506</v>
       </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="95" t="s">
+      <c r="I2" s="120"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="125" t="s">
         <v>505</v>
       </c>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="127"/>
     </row>
     <row r="3" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="89"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="98"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="38" t="s">
         <v>504</v>
       </c>

--- a/programs/addtoWIDE_countries.xlsx
+++ b/programs/addtoWIDE_countries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosa_V\Dropbox\WIDE\WIDE\programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A562764-B464-4B1E-AB42-6CD621C7A198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC795806-2A86-475C-B4D5-1DA46FD898D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="270" windowWidth="17640" windowHeight="8930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="1140" windowWidth="18580" windowHeight="8930" tabRatio="645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="surveys to include" sheetId="7" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="Comparison values" sheetId="5" r:id="rId3"/>
     <sheet name="UIS data" sheetId="6" r:id="rId4"/>
     <sheet name="surveys not included" sheetId="1" r:id="rId5"/>
+    <sheet name="regions" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Duration!$A$1:$K$3108</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'surveys not included'!$A$1:$N$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'surveys to include'!$A$1:$N$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'surveys to include'!$A$2:$T$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'UIS data'!$A$3:$J$18</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6756" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7104" uniqueCount="772">
   <si>
     <t>iso_code3</t>
   </si>
@@ -1756,12 +1757,615 @@
   <si>
     <t>not a priority</t>
   </si>
+  <si>
+    <t>*Note: MICS6 Pakistan (Punjab) not included because it is sub-national.</t>
+  </si>
+  <si>
+    <t>Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+  </si>
+  <si>
+    <t>There are 12 national MICS6 available</t>
+  </si>
+  <si>
+    <t>Current duration</t>
+  </si>
+  <si>
+    <t>Former duration (if changed duration/age start 2005-2017</t>
+  </si>
+  <si>
+    <t>yes, starting 2013</t>
+  </si>
+  <si>
+    <t>yes, starting 2009</t>
+  </si>
+  <si>
+    <t>*yes, starting 2011</t>
+  </si>
+  <si>
+    <t>latest duration matches data</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>stairs until upsec, then flat</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>stairs until upsec</t>
+  </si>
+  <si>
+    <t>no exact match</t>
+  </si>
+  <si>
+    <t>stairs until lowsec, then flat</t>
+  </si>
+  <si>
+    <t>weird…</t>
+  </si>
+  <si>
+    <t>prim_age</t>
+  </si>
+  <si>
+    <t>prim</t>
+  </si>
+  <si>
+    <t>-&gt; country = Gambia</t>
+  </si>
+  <si>
+    <t>Region/Governorate</t>
+  </si>
+  <si>
+    <t>Freq.</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Cum.</t>
+  </si>
+  <si>
+    <t>Banjul</t>
+  </si>
+  <si>
+    <t>Basse</t>
+  </si>
+  <si>
+    <t>Brikama</t>
+  </si>
+  <si>
+    <t>Janjanbureh</t>
+  </si>
+  <si>
+    <t>Kanifing</t>
+  </si>
+  <si>
+    <t>Kerewan</t>
+  </si>
+  <si>
+    <t>Kuntaur</t>
+  </si>
+  <si>
+    <t>Mansakonko</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>-&gt; country = Georgia</t>
+  </si>
+  <si>
+    <t>adjara a.r.</t>
+  </si>
+  <si>
+    <t>guria</t>
+  </si>
+  <si>
+    <t>imereti</t>
+  </si>
+  <si>
+    <t>khakheti</t>
+  </si>
+  <si>
+    <t>kvemo kartli</t>
+  </si>
+  <si>
+    <t>mtkheta-mtianeti</t>
+  </si>
+  <si>
+    <t>samegrelo-zemo svaneti</t>
+  </si>
+  <si>
+    <t>samtskhe-javakheti</t>
+  </si>
+  <si>
+    <t>shida kartli</t>
+  </si>
+  <si>
+    <t>tbilisi</t>
+  </si>
+  <si>
+    <t>-&gt; country = Iraq</t>
+  </si>
+  <si>
+    <t>anbar</t>
+  </si>
+  <si>
+    <t>babil</t>
+  </si>
+  <si>
+    <t>baghdad</t>
+  </si>
+  <si>
+    <t>basrah</t>
+  </si>
+  <si>
+    <t>diala</t>
+  </si>
+  <si>
+    <t>duhok</t>
+  </si>
+  <si>
+    <t>erbil</t>
+  </si>
+  <si>
+    <t>karbalah</t>
+  </si>
+  <si>
+    <t>kirkuk</t>
+  </si>
+  <si>
+    <t>misan</t>
+  </si>
+  <si>
+    <t>muthana</t>
+  </si>
+  <si>
+    <t>nainawa</t>
+  </si>
+  <si>
+    <t>najaf</t>
+  </si>
+  <si>
+    <t>qadisyah</t>
+  </si>
+  <si>
+    <t>salahaddin</t>
+  </si>
+  <si>
+    <t>sulaimaniya</t>
+  </si>
+  <si>
+    <t>thiqar</t>
+  </si>
+  <si>
+    <t>wasit</t>
+  </si>
+  <si>
+    <t>-&gt; country = Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Batken</t>
+  </si>
+  <si>
+    <t>Bishkek c</t>
+  </si>
+  <si>
+    <t>Chui</t>
+  </si>
+  <si>
+    <t>Issyk-kul</t>
+  </si>
+  <si>
+    <t>Jalal-Abad</t>
+  </si>
+  <si>
+    <t>Naryn</t>
+  </si>
+  <si>
+    <t>Osh</t>
+  </si>
+  <si>
+    <t>Osh c</t>
+  </si>
+  <si>
+    <t>Talas</t>
+  </si>
+  <si>
+    <t>-&gt; country = Lao People's</t>
+  </si>
+  <si>
+    <t>Democratic</t>
+  </si>
+  <si>
+    <t>Republic</t>
+  </si>
+  <si>
+    <t>VIENTIANE CAPITAL</t>
+  </si>
+  <si>
+    <t>attapeu</t>
+  </si>
+  <si>
+    <t>bokeo</t>
+  </si>
+  <si>
+    <t>borikhamxay</t>
+  </si>
+  <si>
+    <t>champasack</t>
+  </si>
+  <si>
+    <t>huaphanh</t>
+  </si>
+  <si>
+    <t>khammua</t>
+  </si>
+  <si>
+    <t>luangnamtha</t>
+  </si>
+  <si>
+    <t>luangprabang</t>
+  </si>
+  <si>
+    <t>oudomxay</t>
+  </si>
+  <si>
+    <t>phongsaly</t>
+  </si>
+  <si>
+    <t>saravane</t>
+  </si>
+  <si>
+    <t>savannakhet</t>
+  </si>
+  <si>
+    <t>sekong</t>
+  </si>
+  <si>
+    <t>vientiane</t>
+  </si>
+  <si>
+    <t>xayabury</t>
+  </si>
+  <si>
+    <t>xaysomboune</t>
+  </si>
+  <si>
+    <t>xiengkhuang</t>
+  </si>
+  <si>
+    <t>-&gt; country = Lesotho</t>
+  </si>
+  <si>
+    <t>foothills</t>
+  </si>
+  <si>
+    <t>lowlands</t>
+  </si>
+  <si>
+    <t>mountains</t>
+  </si>
+  <si>
+    <t>senqu river valley</t>
+  </si>
+  <si>
+    <t>-&gt; country = Madagascar</t>
+  </si>
+  <si>
+    <t>alaotra mangoro</t>
+  </si>
+  <si>
+    <t>amoron'i mania</t>
+  </si>
+  <si>
+    <t>analamanga</t>
+  </si>
+  <si>
+    <t>analanjirofo</t>
+  </si>
+  <si>
+    <t>androy</t>
+  </si>
+  <si>
+    <t>anosy</t>
+  </si>
+  <si>
+    <t>atsimo andrefana</t>
+  </si>
+  <si>
+    <t>atsimo atsinanana</t>
+  </si>
+  <si>
+    <t>atsinanana</t>
+  </si>
+  <si>
+    <t>betsiboka</t>
+  </si>
+  <si>
+    <t>boeny</t>
+  </si>
+  <si>
+    <t>bongolava</t>
+  </si>
+  <si>
+    <t>diana</t>
+  </si>
+  <si>
+    <t>haute matsiatra</t>
+  </si>
+  <si>
+    <t>ihorombe</t>
+  </si>
+  <si>
+    <t>itasy</t>
+  </si>
+  <si>
+    <t>melaky</t>
+  </si>
+  <si>
+    <t>menabe</t>
+  </si>
+  <si>
+    <t>sava</t>
+  </si>
+  <si>
+    <t>sofia</t>
+  </si>
+  <si>
+    <t>vakinankaratra</t>
+  </si>
+  <si>
+    <t>vatovavy fitovinany</t>
+  </si>
+  <si>
+    <t>-&gt; country = Mongolia</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>eastern</t>
+  </si>
+  <si>
+    <t>khangai</t>
+  </si>
+  <si>
+    <t>ulaanbaatar</t>
+  </si>
+  <si>
+    <t>western</t>
+  </si>
+  <si>
+    <t>-&gt; country = Sierra Leone</t>
+  </si>
+  <si>
+    <t>east</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>west</t>
+  </si>
+  <si>
+    <t>-&gt; country = Suriname</t>
+  </si>
+  <si>
+    <t>brokopondo</t>
+  </si>
+  <si>
+    <t>commewijne</t>
+  </si>
+  <si>
+    <t>coronie</t>
+  </si>
+  <si>
+    <t>marowijne</t>
+  </si>
+  <si>
+    <t>nickerie</t>
+  </si>
+  <si>
+    <t>para</t>
+  </si>
+  <si>
+    <t>paramaribo</t>
+  </si>
+  <si>
+    <t>saramacca</t>
+  </si>
+  <si>
+    <t>sipaliwini</t>
+  </si>
+  <si>
+    <t>wanica</t>
+  </si>
+  <si>
+    <t>-&gt; country = Tunisia</t>
+  </si>
+  <si>
+    <t>CENTRE EST</t>
+  </si>
+  <si>
+    <t>CENTRE OUEST</t>
+  </si>
+  <si>
+    <t>DISTRICT TUNIS</t>
+  </si>
+  <si>
+    <t>NORD EST</t>
+  </si>
+  <si>
+    <t>NORD OUEST</t>
+  </si>
+  <si>
+    <t>SUD EST</t>
+  </si>
+  <si>
+    <t>SUD OUEST</t>
+  </si>
+  <si>
+    <t>-&gt; country = Zimbabwe</t>
+  </si>
+  <si>
+    <t>bulawayo</t>
+  </si>
+  <si>
+    <t>harare</t>
+  </si>
+  <si>
+    <t>manicaland</t>
+  </si>
+  <si>
+    <t>mashonaland central</t>
+  </si>
+  <si>
+    <t>mashonaland east</t>
+  </si>
+  <si>
+    <t>mashonaland west</t>
+  </si>
+  <si>
+    <t>masvingo</t>
+  </si>
+  <si>
+    <t>matabeleland north</t>
+  </si>
+  <si>
+    <t>matabeleland south</t>
+  </si>
+  <si>
+    <t>midlands</t>
+  </si>
+  <si>
+    <t>Region       Freq.     Percent</t>
+  </si>
+  <si>
+    <t>Kurdistan      16,622       12.65</t>
+  </si>
+  <si>
+    <t>South/Central Iraq     114,772       87.35</t>
+  </si>
+  <si>
+    <t>Total     131,394      100.00</t>
+  </si>
+  <si>
+    <t>-&gt; country = Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Central      44,074       41.34</t>
+  </si>
+  <si>
+    <t>North      39,070       36.64</t>
+  </si>
+  <si>
+    <t>South      23,479       22.02</t>
+  </si>
+  <si>
+    <t>Total     106,623      100.00</t>
+  </si>
+  <si>
+    <t>Berea       3,592       10.23</t>
+  </si>
+  <si>
+    <t>Botha-Bothe       3,364        9.58</t>
+  </si>
+  <si>
+    <t>Leribe       3,511       10.00</t>
+  </si>
+  <si>
+    <t>Mafeteng       3,160        9.00</t>
+  </si>
+  <si>
+    <t>Maseru       4,061       11.57</t>
+  </si>
+  <si>
+    <t>Mohales Hoek       3,291        9.37</t>
+  </si>
+  <si>
+    <t>Mokhotlong       3,327        9.48</t>
+  </si>
+  <si>
+    <t>Qachas Nek       3,711       10.57</t>
+  </si>
+  <si>
+    <t>Quthing       3,524       10.04</t>
+  </si>
+  <si>
+    <t>Thaba-Tseka       3,569       10.17</t>
+  </si>
+  <si>
+    <t>Bo       5,580        7.44</t>
+  </si>
+  <si>
+    <t>Bombali       5,477        7.30</t>
+  </si>
+  <si>
+    <t>Bonthe       4,642        6.19</t>
+  </si>
+  <si>
+    <t>Kailahun       5,351        7.13</t>
+  </si>
+  <si>
+    <t>Kambia       4,784        6.38</t>
+  </si>
+  <si>
+    <t>Kenema       6,629        8.84</t>
+  </si>
+  <si>
+    <t>Koinadugu       5,941        7.92</t>
+  </si>
+  <si>
+    <t>Kono       4,602        6.13</t>
+  </si>
+  <si>
+    <t>Moyamba       4,272        5.69</t>
+  </si>
+  <si>
+    <t>Port Loko       6,017        8.02</t>
+  </si>
+  <si>
+    <t>Pujehun       4,416        5.89</t>
+  </si>
+  <si>
+    <t>Tonkolili       5,334        7.11</t>
+  </si>
+  <si>
+    <t>Western Area Rural       5,180        6.91</t>
+  </si>
+  <si>
+    <t>Western Area Urban       6,790        9.05</t>
+  </si>
+  <si>
+    <t>Total      75,015      100.00</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>HH7</t>
+  </si>
+  <si>
+    <t>SAME REGIONS AS IN PREVIOUS ROUNDS</t>
+  </si>
+  <si>
+    <t>MISSING</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1927,8 +2531,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1986,6 +2604,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2125,7 +2773,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2413,10 +3061,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2427,7 +3071,13 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2464,29 +3114,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2769,162 +3447,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857B6EF3-D424-4F01-94B9-5999C6333037}">
-  <dimension ref="A1:AT23"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AV34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" style="110" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" style="110" customWidth="1"/>
     <col min="2" max="2" width="7.453125" style="110" customWidth="1"/>
     <col min="3" max="3" width="5.6328125" style="110" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" style="110" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="113"/>
-    <col min="6" max="6" width="19.6328125" style="110" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" style="110" customWidth="1"/>
-    <col min="8" max="8" width="13" style="110" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="110" customWidth="1"/>
+    <col min="5" max="5" width="5.6328125" style="111" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" style="110" customWidth="1"/>
+    <col min="7" max="7" width="6.453125" style="110" customWidth="1"/>
+    <col min="8" max="8" width="4.6328125" style="110" customWidth="1"/>
     <col min="9" max="9" width="7" style="98" customWidth="1"/>
-    <col min="10" max="10" width="19" style="98" customWidth="1"/>
-    <col min="11" max="14" width="8.7265625" style="110"/>
-    <col min="15" max="46" width="8.7265625" style="86"/>
-    <col min="47" max="16384" width="8.7265625" style="110"/>
+    <col min="10" max="10" width="13.26953125" style="98" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="98" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="110"/>
+    <col min="13" max="13" width="5.1796875" style="110" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" style="110" customWidth="1"/>
+    <col min="15" max="15" width="5.1796875" style="110" customWidth="1"/>
+    <col min="16" max="16" width="1.26953125" style="135" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" style="86"/>
+    <col min="18" max="20" width="5.36328125" style="86" customWidth="1"/>
+    <col min="21" max="48" width="8.7265625" style="86"/>
+    <col min="49" max="16384" width="8.7265625" style="110"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="89" customFormat="1" ht="65" x14ac:dyDescent="0.35">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="L1" s="130" t="s">
+        <v>575</v>
+      </c>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="130" t="s">
+        <v>576</v>
+      </c>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+    </row>
+    <row r="2" spans="1:48" s="89" customFormat="1" ht="65" x14ac:dyDescent="0.35">
+      <c r="A2" s="90" t="s">
         <v>555</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C2" s="90" t="s">
         <v>569</v>
       </c>
-      <c r="D1" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="90" t="s">
+      <c r="D2" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="90" t="s">
+      <c r="G2" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H2" s="89" t="s">
         <v>561</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I2" s="90" t="s">
         <v>565</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="J2" s="89" t="s">
         <v>559</v>
       </c>
-      <c r="K1" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="138"/>
-      <c r="AB1" s="138"/>
-      <c r="AC1" s="138"/>
-      <c r="AD1" s="138"/>
-      <c r="AE1" s="138"/>
-      <c r="AF1" s="138"/>
-      <c r="AG1" s="138"/>
-      <c r="AH1" s="138"/>
-      <c r="AI1" s="138"/>
-      <c r="AJ1" s="138"/>
-      <c r="AK1" s="138"/>
-      <c r="AL1" s="138"/>
-      <c r="AM1" s="138"/>
-      <c r="AN1" s="138"/>
-      <c r="AO1" s="138"/>
-      <c r="AP1" s="138"/>
-      <c r="AQ1" s="138"/>
-      <c r="AR1" s="138"/>
-      <c r="AS1" s="138"/>
-      <c r="AT1" s="138"/>
-    </row>
-    <row r="2" spans="1:46" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="K2" s="89" t="s">
+        <v>581</v>
+      </c>
+      <c r="L2" s="92" t="s">
+        <v>588</v>
+      </c>
+      <c r="M2" s="93" t="s">
+        <v>589</v>
+      </c>
+      <c r="N2" s="93" t="s">
+        <v>515</v>
+      </c>
+      <c r="O2" s="93" t="s">
+        <v>514</v>
+      </c>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="92" t="s">
+        <v>588</v>
+      </c>
+      <c r="R2" s="93" t="s">
+        <v>589</v>
+      </c>
+      <c r="S2" s="93" t="s">
+        <v>515</v>
+      </c>
+      <c r="T2" s="93" t="s">
+        <v>514</v>
+      </c>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="117"/>
+      <c r="Y2" s="117"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="117"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="117"/>
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="117"/>
+      <c r="AG2" s="117"/>
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="117"/>
+      <c r="AJ2" s="117"/>
+      <c r="AK2" s="117"/>
+      <c r="AL2" s="117"/>
+      <c r="AM2" s="117"/>
+      <c r="AN2" s="117"/>
+      <c r="AO2" s="117"/>
+      <c r="AP2" s="117"/>
+      <c r="AQ2" s="117"/>
+      <c r="AR2" s="117"/>
+      <c r="AS2" s="117"/>
+      <c r="AT2" s="117"/>
+      <c r="AU2" s="117"/>
+      <c r="AV2" s="117"/>
+    </row>
+    <row r="3" spans="1:48" s="94" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="112" t="s">
         <v>539</v>
       </c>
-      <c r="B2" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="86" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="95">
-        <v>2018</v>
-      </c>
-      <c r="F2" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="96" t="s">
-        <v>567</v>
-      </c>
-      <c r="I2" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="98" t="s">
-        <v>563</v>
-      </c>
-      <c r="K2" s="99">
-        <v>6</v>
-      </c>
-      <c r="L2" s="100">
-        <v>6</v>
-      </c>
-      <c r="M2" s="100">
-        <v>4</v>
-      </c>
-      <c r="N2" s="100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
-        <v>539</v>
-      </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="94" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E3" s="95">
         <v>2018</v>
@@ -2935,38 +3604,42 @@
       <c r="G3" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="86"/>
+      <c r="H3" s="96" t="s">
+        <v>567</v>
+      </c>
       <c r="I3" s="97" t="s">
         <v>60</v>
       </c>
       <c r="J3" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="K3" s="99">
-        <v>7</v>
-      </c>
-      <c r="L3" s="100">
+      <c r="K3" s="98"/>
+      <c r="L3" s="99">
         <v>6</v>
       </c>
       <c r="M3" s="100">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N3" s="100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="100">
+        <v>3</v>
+      </c>
+      <c r="P3" s="133"/>
+    </row>
+    <row r="4" spans="1:48" s="94" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="112" t="s">
         <v>539</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E4" s="95">
         <v>2018</v>
@@ -2981,34 +3654,36 @@
       <c r="I4" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="101" t="s">
-        <v>564</v>
-      </c>
-      <c r="K4" s="99">
+      <c r="J4" s="98" t="s">
+        <v>563</v>
+      </c>
+      <c r="K4" s="98"/>
+      <c r="L4" s="99">
         <v>7</v>
       </c>
-      <c r="L4" s="100">
-        <v>6</v>
-      </c>
       <c r="M4" s="100">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N4" s="100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="100">
+        <v>3</v>
+      </c>
+      <c r="P4" s="133"/>
+    </row>
+    <row r="5" spans="1:48" s="94" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="112" t="s">
         <v>539</v>
       </c>
       <c r="B5" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E5" s="95">
         <v>2018</v>
@@ -3019,91 +3694,95 @@
       <c r="G5" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="96" t="s">
-        <v>568</v>
-      </c>
+      <c r="H5" s="86"/>
       <c r="I5" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="98" t="s">
-        <v>563</v>
-      </c>
-      <c r="K5" s="99">
-        <v>6</v>
-      </c>
-      <c r="L5" s="100">
-        <v>6</v>
+      <c r="J5" s="101" t="s">
+        <v>564</v>
+      </c>
+      <c r="K5" s="101"/>
+      <c r="L5" s="99">
+        <v>7</v>
       </c>
       <c r="M5" s="100">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N5" s="100">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:46" s="94" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="s">
+      <c r="O5" s="100">
+        <v>3</v>
+      </c>
+      <c r="P5" s="133"/>
+    </row>
+    <row r="6" spans="1:48" s="94" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
         <v>539</v>
       </c>
       <c r="B6" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E6" s="95">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F6" s="86" t="s">
-        <v>558</v>
+        <v>63</v>
       </c>
       <c r="G6" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="86"/>
+        <v>60</v>
+      </c>
+      <c r="H6" s="96" t="s">
+        <v>568</v>
+      </c>
       <c r="I6" s="97" t="s">
         <v>60</v>
       </c>
       <c r="J6" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="K6" s="102">
-        <v>6</v>
-      </c>
-      <c r="L6" s="103">
-        <v>6</v>
-      </c>
-      <c r="M6" s="103">
-        <v>4</v>
-      </c>
-      <c r="N6" s="103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="114" t="s">
+      <c r="K6" s="98"/>
+      <c r="L6" s="99">
+        <v>6</v>
+      </c>
+      <c r="M6" s="100">
+        <v>6</v>
+      </c>
+      <c r="N6" s="100">
+        <v>3</v>
+      </c>
+      <c r="O6" s="100">
+        <v>3</v>
+      </c>
+      <c r="P6" s="133"/>
+    </row>
+    <row r="7" spans="1:48" s="94" customFormat="1" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="112" t="s">
         <v>539</v>
       </c>
       <c r="B7" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E7" s="95">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F7" s="86" t="s">
-        <v>63</v>
+        <v>558</v>
       </c>
       <c r="G7" s="86" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H7" s="86"/>
       <c r="I7" s="97" t="s">
@@ -3112,40 +3791,42 @@
       <c r="J7" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="K7" s="99">
-        <v>7</v>
-      </c>
-      <c r="L7" s="100">
-        <v>7</v>
-      </c>
-      <c r="M7" s="100">
-        <v>2</v>
-      </c>
-      <c r="N7" s="100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="114" t="s">
+      <c r="K7" s="98"/>
+      <c r="L7" s="102">
+        <v>6</v>
+      </c>
+      <c r="M7" s="103">
+        <v>6</v>
+      </c>
+      <c r="N7" s="103">
+        <v>4</v>
+      </c>
+      <c r="O7" s="103">
+        <v>3</v>
+      </c>
+      <c r="P7" s="134"/>
+    </row>
+    <row r="8" spans="1:48" s="94" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="112" t="s">
         <v>539</v>
       </c>
       <c r="B8" s="86" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="95">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="F8" s="86" t="s">
         <v>63</v>
       </c>
       <c r="G8" s="86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H8" s="86"/>
       <c r="I8" s="97" t="s">
@@ -3154,198 +3835,172 @@
       <c r="J8" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="K8" s="99">
+      <c r="K8" s="98"/>
+      <c r="L8" s="99">
         <v>7</v>
       </c>
-      <c r="L8" s="100">
+      <c r="M8" s="100">
         <v>7</v>
       </c>
-      <c r="M8" s="100">
-        <v>2</v>
-      </c>
       <c r="N8" s="100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="100">
+        <v>3</v>
+      </c>
+      <c r="P8" s="133"/>
+    </row>
+    <row r="9" spans="1:48" s="94" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="112" t="s">
+        <v>539</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="95">
+        <v>2018</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="86"/>
+      <c r="I9" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="98" t="s">
+        <v>563</v>
+      </c>
+      <c r="K9" s="98"/>
+      <c r="L9" s="99">
+        <v>7</v>
+      </c>
+      <c r="M9" s="100">
+        <v>7</v>
+      </c>
+      <c r="N9" s="100">
+        <v>2</v>
+      </c>
+      <c r="O9" s="100">
+        <v>3</v>
+      </c>
+      <c r="P9" s="133"/>
+    </row>
+    <row r="10" spans="1:48" s="94" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="113" t="s">
         <v>554</v>
       </c>
-      <c r="B9" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="94" t="s">
+      <c r="B10" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="94" t="s">
         <v>363</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D10" s="94" t="s">
         <v>364</v>
       </c>
-      <c r="E9" s="100">
+      <c r="E10" s="100">
         <v>2016</v>
       </c>
-      <c r="F9" s="94" t="s">
+      <c r="F10" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G10" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="97" t="s">
+      <c r="I10" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="97"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-    </row>
-    <row r="10" spans="1:46" s="134" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="130" t="s">
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="135"/>
+    </row>
+    <row r="11" spans="1:48" s="115" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="140" t="s">
         <v>538</v>
       </c>
-      <c r="B10" s="131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="131" t="s">
+      <c r="B11" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="131" t="s">
+      <c r="D11" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="132">
+      <c r="E11" s="141">
         <v>2017</v>
       </c>
-      <c r="F10" s="131" t="s">
+      <c r="F11" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="131" t="s">
+      <c r="G11" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="131" t="s">
+      <c r="H11" s="115" t="s">
         <v>570</v>
       </c>
-      <c r="I10" s="133" t="s">
+      <c r="I11" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="133"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="86"/>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="86"/>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="86"/>
-      <c r="AJ10" s="86"/>
-      <c r="AK10" s="86"/>
-      <c r="AL10" s="86"/>
-      <c r="AM10" s="86"/>
-      <c r="AN10" s="86"/>
-      <c r="AO10" s="86"/>
-      <c r="AP10" s="86"/>
-      <c r="AQ10" s="86"/>
-      <c r="AR10" s="86"/>
-      <c r="AS10" s="86"/>
-      <c r="AT10" s="86"/>
-    </row>
-    <row r="11" spans="1:46" s="109" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="116" t="s">
+      <c r="P11" s="142"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="97"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="97"/>
+      <c r="AC11" s="97"/>
+      <c r="AD11" s="97"/>
+      <c r="AE11" s="97"/>
+      <c r="AF11" s="97"/>
+      <c r="AG11" s="97"/>
+      <c r="AH11" s="97"/>
+      <c r="AI11" s="97"/>
+      <c r="AJ11" s="97"/>
+      <c r="AK11" s="97"/>
+      <c r="AL11" s="97"/>
+      <c r="AM11" s="97"/>
+      <c r="AN11" s="97"/>
+      <c r="AO11" s="97"/>
+      <c r="AP11" s="97"/>
+      <c r="AQ11" s="97"/>
+      <c r="AR11" s="97"/>
+      <c r="AS11" s="97"/>
+      <c r="AT11" s="97"/>
+      <c r="AU11" s="97"/>
+      <c r="AV11" s="97"/>
+    </row>
+    <row r="12" spans="1:48" s="109" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="114" t="s">
         <v>538</v>
       </c>
-      <c r="B11" s="104" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="104" t="s">
+      <c r="B12" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="104" t="s">
         <v>235</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D12" s="88" t="s">
         <v>236</v>
-      </c>
-      <c r="E11" s="105">
-        <v>2017</v>
-      </c>
-      <c r="F11" s="106" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="106" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="106"/>
-      <c r="I11" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="98" t="s">
-        <v>563</v>
-      </c>
-      <c r="K11" s="107">
-        <v>6</v>
-      </c>
-      <c r="L11" s="108">
-        <v>6</v>
-      </c>
-      <c r="M11" s="108">
-        <v>3</v>
-      </c>
-      <c r="N11" s="108">
-        <v>4</v>
-      </c>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="86"/>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="86"/>
-      <c r="AJ11" s="86"/>
-      <c r="AK11" s="86"/>
-      <c r="AL11" s="86"/>
-      <c r="AM11" s="86"/>
-      <c r="AN11" s="86"/>
-      <c r="AO11" s="86"/>
-      <c r="AP11" s="86"/>
-      <c r="AQ11" s="86"/>
-      <c r="AR11" s="86"/>
-      <c r="AS11" s="86"/>
-      <c r="AT11" s="86"/>
-    </row>
-    <row r="12" spans="1:46" s="87" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="116" t="s">
-        <v>538</v>
-      </c>
-      <c r="B12" s="104" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="104" t="s">
-        <v>249</v>
-      </c>
-      <c r="D12" s="88" t="s">
-        <v>250</v>
       </c>
       <c r="E12" s="105">
         <v>2017</v>
@@ -3363,20 +4018,20 @@
       <c r="J12" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="K12" s="107">
-        <v>7</v>
-      </c>
-      <c r="L12" s="108">
+      <c r="K12" s="98"/>
+      <c r="L12" s="107">
         <v>6</v>
       </c>
       <c r="M12" s="108">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N12" s="108">
         <v>3</v>
       </c>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
+      <c r="O12" s="108">
+        <v>4</v>
+      </c>
+      <c r="P12" s="133"/>
       <c r="Q12" s="86"/>
       <c r="R12" s="86"/>
       <c r="S12" s="86"/>
@@ -3407,19 +4062,21 @@
       <c r="AR12" s="86"/>
       <c r="AS12" s="86"/>
       <c r="AT12" s="86"/>
-    </row>
-    <row r="13" spans="1:46" s="87" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="116" t="s">
+      <c r="AU12" s="86"/>
+      <c r="AV12" s="86"/>
+    </row>
+    <row r="13" spans="1:48" s="87" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="114" t="s">
         <v>538</v>
       </c>
       <c r="B13" s="104" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="104" t="s">
-        <v>301</v>
+        <v>249</v>
       </c>
       <c r="D13" s="88" t="s">
-        <v>302</v>
+        <v>250</v>
       </c>
       <c r="E13" s="105">
         <v>2017</v>
@@ -3437,20 +4094,20 @@
       <c r="J13" s="98" t="s">
         <v>563</v>
       </c>
-      <c r="K13" s="107">
-        <v>6</v>
-      </c>
-      <c r="L13" s="108">
+      <c r="K13" s="98"/>
+      <c r="L13" s="107">
         <v>7</v>
       </c>
       <c r="M13" s="108">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N13" s="108">
-        <v>2</v>
-      </c>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
+        <v>3</v>
+      </c>
+      <c r="O13" s="108">
+        <v>3</v>
+      </c>
+      <c r="P13" s="133"/>
       <c r="Q13" s="86"/>
       <c r="R13" s="86"/>
       <c r="S13" s="86"/>
@@ -3481,22 +4138,24 @@
       <c r="AR13" s="86"/>
       <c r="AS13" s="86"/>
       <c r="AT13" s="86"/>
-    </row>
-    <row r="14" spans="1:46" s="87" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="116" t="s">
+      <c r="AU13" s="86"/>
+      <c r="AV13" s="86"/>
+    </row>
+    <row r="14" spans="1:48" s="87" customFormat="1" ht="15.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="114" t="s">
         <v>538</v>
       </c>
       <c r="B14" s="104" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="D14" s="88" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="E14" s="105">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F14" s="106" t="s">
         <v>63</v>
@@ -3508,23 +4167,23 @@
       <c r="I14" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="101" t="s">
-        <v>564</v>
-      </c>
-      <c r="K14" s="107">
-        <v>5</v>
-      </c>
-      <c r="L14" s="108">
-        <v>5</v>
+      <c r="J14" s="98" t="s">
+        <v>563</v>
+      </c>
+      <c r="K14" s="98"/>
+      <c r="L14" s="107">
+        <v>6</v>
       </c>
       <c r="M14" s="108">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N14" s="108">
-        <v>4</v>
-      </c>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
+        <v>3</v>
+      </c>
+      <c r="O14" s="108">
+        <v>2</v>
+      </c>
+      <c r="P14" s="133"/>
       <c r="Q14" s="86"/>
       <c r="R14" s="86"/>
       <c r="S14" s="86"/>
@@ -3555,19 +4214,21 @@
       <c r="AR14" s="86"/>
       <c r="AS14" s="86"/>
       <c r="AT14" s="86"/>
-    </row>
-    <row r="15" spans="1:46" s="87" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="116" t="s">
+      <c r="AU14" s="86"/>
+      <c r="AV14" s="86"/>
+    </row>
+    <row r="15" spans="1:48" s="87" customFormat="1" ht="15.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="114" t="s">
         <v>538</v>
       </c>
       <c r="B15" s="104" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="104" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="D15" s="88" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="E15" s="105">
         <v>2018</v>
@@ -3585,20 +4246,20 @@
       <c r="J15" s="101" t="s">
         <v>564</v>
       </c>
-      <c r="K15" s="107">
-        <v>6</v>
-      </c>
-      <c r="L15" s="108">
-        <v>6</v>
+      <c r="K15" s="101"/>
+      <c r="L15" s="107">
+        <v>5</v>
       </c>
       <c r="M15" s="108">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" s="108">
-        <v>1</v>
-      </c>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
+        <v>3</v>
+      </c>
+      <c r="O15" s="108">
+        <v>4</v>
+      </c>
+      <c r="P15" s="133"/>
       <c r="Q15" s="86"/>
       <c r="R15" s="86"/>
       <c r="S15" s="86"/>
@@ -3629,52 +4290,52 @@
       <c r="AR15" s="86"/>
       <c r="AS15" s="86"/>
       <c r="AT15" s="86"/>
-    </row>
-    <row r="16" spans="1:46" s="134" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="130" t="s">
+      <c r="AU15" s="86"/>
+      <c r="AV15" s="86"/>
+    </row>
+    <row r="16" spans="1:48" s="87" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="114" t="s">
         <v>538</v>
       </c>
-      <c r="B16" s="131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="131" t="s">
-        <v>445</v>
-      </c>
-      <c r="D16" s="135" t="s">
-        <v>446</v>
-      </c>
-      <c r="E16" s="136">
-        <v>2017</v>
-      </c>
-      <c r="F16" s="131" t="s">
+      <c r="B16" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="104" t="s">
+        <v>369</v>
+      </c>
+      <c r="D16" s="88" t="s">
+        <v>370</v>
+      </c>
+      <c r="E16" s="105">
+        <v>2018</v>
+      </c>
+      <c r="F16" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="131" t="s">
+      <c r="G16" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="131" t="s">
-        <v>570</v>
-      </c>
-      <c r="I16" s="133" t="s">
+      <c r="H16" s="106"/>
+      <c r="I16" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="133" t="s">
+      <c r="J16" s="101" t="s">
         <v>564</v>
       </c>
-      <c r="K16" s="137">
-        <v>7</v>
-      </c>
-      <c r="L16" s="132">
-        <v>4</v>
-      </c>
-      <c r="M16" s="132">
-        <v>5</v>
-      </c>
-      <c r="N16" s="132">
-        <v>2</v>
-      </c>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="107">
+        <v>6</v>
+      </c>
+      <c r="M16" s="108">
+        <v>6</v>
+      </c>
+      <c r="N16" s="108">
+        <v>3</v>
+      </c>
+      <c r="O16" s="108">
+        <v>1</v>
+      </c>
+      <c r="P16" s="133"/>
       <c r="Q16" s="86"/>
       <c r="R16" s="86"/>
       <c r="S16" s="86"/>
@@ -3705,62 +4366,101 @@
       <c r="AR16" s="86"/>
       <c r="AS16" s="86"/>
       <c r="AT16" s="86"/>
-    </row>
-    <row r="17" spans="1:46" s="86" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="114" t="s">
-        <v>539</v>
-      </c>
-      <c r="B17" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="95">
-        <v>2015</v>
-      </c>
-      <c r="F17" s="86" t="s">
+      <c r="AU16" s="86"/>
+      <c r="AV16" s="86"/>
+    </row>
+    <row r="17" spans="1:48" s="115" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="140" t="s">
+        <v>538</v>
+      </c>
+      <c r="B17" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="115" t="s">
+        <v>445</v>
+      </c>
+      <c r="D17" s="143" t="s">
+        <v>446</v>
+      </c>
+      <c r="E17" s="116">
+        <v>2017</v>
+      </c>
+      <c r="F17" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="110"/>
-      <c r="I17" s="97" t="s">
+      <c r="G17" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="97"/>
-      <c r="K17" s="99">
-        <v>6</v>
-      </c>
-      <c r="L17" s="100">
-        <v>6</v>
-      </c>
-      <c r="M17" s="100">
-        <v>4</v>
-      </c>
-      <c r="N17" s="100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:46" s="87" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="114" t="s">
+      <c r="H17" s="115" t="s">
+        <v>570</v>
+      </c>
+      <c r="I17" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="115" t="s">
+        <v>564</v>
+      </c>
+      <c r="L17" s="144">
+        <v>7</v>
+      </c>
+      <c r="M17" s="141">
+        <v>4</v>
+      </c>
+      <c r="N17" s="141">
+        <v>5</v>
+      </c>
+      <c r="O17" s="141">
+        <v>2</v>
+      </c>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="97"/>
+      <c r="V17" s="97"/>
+      <c r="W17" s="97"/>
+      <c r="X17" s="97"/>
+      <c r="Y17" s="97"/>
+      <c r="Z17" s="97"/>
+      <c r="AA17" s="97"/>
+      <c r="AB17" s="97"/>
+      <c r="AC17" s="97"/>
+      <c r="AD17" s="97"/>
+      <c r="AE17" s="97"/>
+      <c r="AF17" s="97"/>
+      <c r="AG17" s="97"/>
+      <c r="AH17" s="97"/>
+      <c r="AI17" s="97"/>
+      <c r="AJ17" s="97"/>
+      <c r="AK17" s="97"/>
+      <c r="AL17" s="97"/>
+      <c r="AM17" s="97"/>
+      <c r="AN17" s="97"/>
+      <c r="AO17" s="97"/>
+      <c r="AP17" s="97"/>
+      <c r="AQ17" s="97"/>
+      <c r="AR17" s="97"/>
+      <c r="AS17" s="97"/>
+      <c r="AT17" s="97"/>
+      <c r="AU17" s="97"/>
+      <c r="AV17" s="97"/>
+    </row>
+    <row r="18" spans="1:48" s="86" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="112" t="s">
         <v>539</v>
       </c>
       <c r="B18" s="86" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="86" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D18" s="86" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E18" s="95">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F18" s="86" t="s">
         <v>63</v>
@@ -3773,207 +4473,715 @@
         <v>60</v>
       </c>
       <c r="J18" s="97"/>
-      <c r="K18" s="99">
+      <c r="K18" s="97"/>
+      <c r="L18" s="99">
+        <v>6</v>
+      </c>
+      <c r="M18" s="100">
+        <v>6</v>
+      </c>
+      <c r="N18" s="100">
+        <v>4</v>
+      </c>
+      <c r="O18" s="100">
+        <v>3</v>
+      </c>
+      <c r="P18" s="133"/>
+    </row>
+    <row r="19" spans="1:48" s="87" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="112" t="s">
+        <v>539</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="95">
+        <v>2016</v>
+      </c>
+      <c r="F19" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="110"/>
+      <c r="I19" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="99">
         <v>7</v>
       </c>
-      <c r="L18" s="100">
-        <v>6</v>
-      </c>
-      <c r="M18" s="100">
-        <v>4</v>
-      </c>
-      <c r="N18" s="100">
-        <v>3</v>
-      </c>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="86"/>
-      <c r="AB18" s="86"/>
-      <c r="AC18" s="86"/>
-      <c r="AD18" s="86"/>
-      <c r="AE18" s="86"/>
-      <c r="AF18" s="86"/>
-      <c r="AG18" s="86"/>
-      <c r="AH18" s="86"/>
-      <c r="AI18" s="86"/>
-      <c r="AJ18" s="86"/>
-      <c r="AK18" s="86"/>
-      <c r="AL18" s="86"/>
-      <c r="AM18" s="86"/>
-      <c r="AN18" s="86"/>
-      <c r="AO18" s="86"/>
-      <c r="AP18" s="86"/>
-      <c r="AQ18" s="86"/>
-      <c r="AR18" s="86"/>
-      <c r="AS18" s="86"/>
-      <c r="AT18" s="86"/>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A19" s="117" t="s">
+      <c r="M19" s="100">
+        <v>6</v>
+      </c>
+      <c r="N19" s="100">
+        <v>4</v>
+      </c>
+      <c r="O19" s="100">
+        <v>3</v>
+      </c>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="86"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="86"/>
+      <c r="AH19" s="86"/>
+      <c r="AI19" s="86"/>
+      <c r="AJ19" s="86"/>
+      <c r="AK19" s="86"/>
+      <c r="AL19" s="86"/>
+      <c r="AM19" s="86"/>
+      <c r="AN19" s="86"/>
+      <c r="AO19" s="86"/>
+      <c r="AP19" s="86"/>
+      <c r="AQ19" s="86"/>
+      <c r="AR19" s="86"/>
+      <c r="AS19" s="86"/>
+      <c r="AT19" s="86"/>
+      <c r="AU19" s="86"/>
+      <c r="AV19" s="86"/>
+    </row>
+    <row r="20" spans="1:48" s="87" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="112" t="s">
         <v>539</v>
       </c>
-      <c r="B19" s="87" t="s">
+      <c r="B20" s="86" t="s">
         <v>566</v>
       </c>
-      <c r="C19" s="87" t="s">
+      <c r="C20" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="87" t="s">
+      <c r="D20" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="111">
+      <c r="E20" s="95">
         <v>2018</v>
       </c>
-      <c r="F19" s="87" t="s">
+      <c r="F20" s="86" t="s">
         <v>537</v>
       </c>
-      <c r="G19" s="87" t="s">
+      <c r="G20" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="87"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-    </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A20" s="117" t="s">
+      <c r="H20" s="86"/>
+      <c r="I20" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="97" t="s">
+        <v>563</v>
+      </c>
+      <c r="K20" s="97" t="s">
+        <v>583</v>
+      </c>
+      <c r="L20" s="68">
+        <v>7</v>
+      </c>
+      <c r="M20" s="67">
+        <v>6</v>
+      </c>
+      <c r="N20" s="67">
+        <v>3</v>
+      </c>
+      <c r="O20" s="67">
+        <v>3</v>
+      </c>
+      <c r="P20" s="135"/>
+    </row>
+    <row r="21" spans="1:48" s="87" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="112" t="s">
+        <v>538</v>
+      </c>
+      <c r="B21" s="86" t="s">
+        <v>566</v>
+      </c>
+      <c r="C21" s="86" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="109" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" s="95">
+        <v>2018</v>
+      </c>
+      <c r="F21" s="86" t="s">
+        <v>537</v>
+      </c>
+      <c r="G21" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="86"/>
+      <c r="I21" s="97" t="s">
+        <v>578</v>
+      </c>
+      <c r="J21" s="97" t="s">
+        <v>580</v>
+      </c>
+      <c r="K21" s="97" t="s">
+        <v>582</v>
+      </c>
+      <c r="L21" s="136">
+        <v>6</v>
+      </c>
+      <c r="M21" s="137">
+        <v>6</v>
+      </c>
+      <c r="N21" s="137">
+        <v>3</v>
+      </c>
+      <c r="O21" s="137">
+        <v>3</v>
+      </c>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="68">
+        <v>6</v>
+      </c>
+      <c r="R21" s="67">
+        <v>6</v>
+      </c>
+      <c r="S21" s="67">
+        <v>3</v>
+      </c>
+      <c r="T21" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" s="87" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="112" t="s">
+        <v>538</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>566</v>
+      </c>
+      <c r="C22" s="86" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" s="109" t="s">
+        <v>254</v>
+      </c>
+      <c r="E22" s="95">
+        <v>2018</v>
+      </c>
+      <c r="F22" s="86" t="s">
+        <v>537</v>
+      </c>
+      <c r="G22" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="86"/>
+      <c r="I22" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="97" t="s">
+        <v>563</v>
+      </c>
+      <c r="K22" s="97"/>
+      <c r="L22" s="68">
+        <v>6</v>
+      </c>
+      <c r="M22" s="67">
+        <v>6</v>
+      </c>
+      <c r="N22" s="67">
+        <v>3</v>
+      </c>
+      <c r="O22" s="67">
+        <v>3</v>
+      </c>
+      <c r="P22" s="135"/>
+    </row>
+    <row r="23" spans="1:48" s="87" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="112" t="s">
+        <v>538</v>
+      </c>
+      <c r="B23" s="86" t="s">
+        <v>566</v>
+      </c>
+      <c r="C23" s="86" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23" s="109" t="s">
+        <v>572</v>
+      </c>
+      <c r="E23" s="95">
+        <v>2018</v>
+      </c>
+      <c r="F23" s="86" t="s">
+        <v>537</v>
+      </c>
+      <c r="G23" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="86"/>
+      <c r="I23" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="97" t="s">
+        <v>563</v>
+      </c>
+      <c r="K23" s="97"/>
+      <c r="L23" s="68">
+        <v>7</v>
+      </c>
+      <c r="M23" s="67">
+        <v>4</v>
+      </c>
+      <c r="N23" s="67">
+        <v>5</v>
+      </c>
+      <c r="O23" s="67">
+        <v>2</v>
+      </c>
+      <c r="P23" s="135"/>
+    </row>
+    <row r="24" spans="1:48" s="87" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="112" t="s">
+        <v>538</v>
+      </c>
+      <c r="B24" s="86" t="s">
+        <v>566</v>
+      </c>
+      <c r="C24" s="86" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="109" t="s">
+        <v>573</v>
+      </c>
+      <c r="E24" s="95">
+        <v>2017</v>
+      </c>
+      <c r="F24" s="86" t="s">
+        <v>537</v>
+      </c>
+      <c r="G24" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="86"/>
+      <c r="I24" s="97" t="s">
+        <v>579</v>
+      </c>
+      <c r="J24" s="145" t="s">
+        <v>580</v>
+      </c>
+      <c r="K24" s="97"/>
+      <c r="L24" s="136">
+        <v>6</v>
+      </c>
+      <c r="M24" s="137">
+        <v>5</v>
+      </c>
+      <c r="N24" s="137">
+        <v>4</v>
+      </c>
+      <c r="O24" s="137">
+        <v>3</v>
+      </c>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="68">
+        <v>6</v>
+      </c>
+      <c r="R24" s="67">
+        <v>5</v>
+      </c>
+      <c r="S24" s="67">
+        <v>3</v>
+      </c>
+      <c r="T24" s="67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" s="87" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="112" t="s">
         <v>539</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="B25" s="86" t="s">
         <v>566</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C25" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="87" t="s">
+      <c r="D25" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="111">
+      <c r="E25" s="95">
         <v>2018</v>
       </c>
-      <c r="F20" s="87" t="s">
+      <c r="F25" s="86" t="s">
         <v>537</v>
       </c>
-      <c r="G20" s="87" t="s">
+      <c r="G25" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="87"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A21" s="117" t="s">
+      <c r="H25" s="86"/>
+      <c r="I25" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="97" t="s">
+        <v>563</v>
+      </c>
+      <c r="K25" s="97" t="s">
+        <v>583</v>
+      </c>
+      <c r="L25" s="68">
+        <v>6</v>
+      </c>
+      <c r="M25" s="67">
+        <v>7</v>
+      </c>
+      <c r="N25" s="67">
+        <v>3</v>
+      </c>
+      <c r="O25" s="67">
+        <v>2</v>
+      </c>
+      <c r="P25" s="135"/>
+    </row>
+    <row r="26" spans="1:48" s="87" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="112" t="s">
         <v>539</v>
       </c>
-      <c r="B21" s="87" t="s">
+      <c r="B26" s="86" t="s">
         <v>566</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C26" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="87" t="s">
+      <c r="D26" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="111">
+      <c r="E26" s="95">
         <v>2018</v>
       </c>
-      <c r="F21" s="87" t="s">
+      <c r="F26" s="86" t="s">
         <v>537</v>
       </c>
-      <c r="G21" s="87" t="s">
+      <c r="G26" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="87"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A22" s="117" t="s">
+      <c r="H26" s="86"/>
+      <c r="I26" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="97" t="s">
+        <v>563</v>
+      </c>
+      <c r="K26" s="97" t="s">
+        <v>583</v>
+      </c>
+      <c r="L26" s="68">
+        <v>6</v>
+      </c>
+      <c r="M26" s="67">
+        <v>5</v>
+      </c>
+      <c r="N26" s="67">
+        <v>4</v>
+      </c>
+      <c r="O26" s="67">
+        <v>3</v>
+      </c>
+      <c r="P26" s="135"/>
+    </row>
+    <row r="27" spans="1:48" s="87" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="112" t="s">
+        <v>538</v>
+      </c>
+      <c r="B27" s="86" t="s">
+        <v>566</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>319</v>
+      </c>
+      <c r="D27" s="146" t="s">
+        <v>320</v>
+      </c>
+      <c r="E27" s="95">
+        <v>2018</v>
+      </c>
+      <c r="F27" s="86" t="s">
+        <v>537</v>
+      </c>
+      <c r="G27" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="86"/>
+      <c r="I27" s="97" t="s">
+        <v>579</v>
+      </c>
+      <c r="J27" s="145" t="s">
+        <v>580</v>
+      </c>
+      <c r="K27" s="97" t="s">
+        <v>584</v>
+      </c>
+      <c r="L27" s="136">
+        <v>6</v>
+      </c>
+      <c r="M27" s="137">
+        <v>5</v>
+      </c>
+      <c r="N27" s="137">
+        <v>4</v>
+      </c>
+      <c r="O27" s="137">
+        <v>3</v>
+      </c>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="68">
+        <v>7</v>
+      </c>
+      <c r="R27" s="67">
+        <v>5</v>
+      </c>
+      <c r="S27" s="67">
+        <v>4</v>
+      </c>
+      <c r="T27" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" s="87" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="112" t="s">
         <v>539</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B28" s="86" t="s">
         <v>566</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C28" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="87" t="s">
+      <c r="D28" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="111">
+      <c r="E28" s="95">
         <v>2017</v>
       </c>
-      <c r="F22" s="87" t="s">
+      <c r="F28" s="86" t="s">
         <v>537</v>
       </c>
-      <c r="G22" s="87" t="s">
+      <c r="G28" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="87"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-    </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A23" s="117" t="s">
+      <c r="H28" s="86"/>
+      <c r="I28" s="97" t="s">
+        <v>577</v>
+      </c>
+      <c r="J28" s="97" t="s">
+        <v>563</v>
+      </c>
+      <c r="K28" s="97" t="s">
+        <v>583</v>
+      </c>
+      <c r="L28" s="136">
+        <v>6</v>
+      </c>
+      <c r="M28" s="137">
+        <v>6</v>
+      </c>
+      <c r="N28" s="137">
+        <v>3</v>
+      </c>
+      <c r="O28" s="137">
+        <v>4</v>
+      </c>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="68">
+        <v>6</v>
+      </c>
+      <c r="R28" s="67">
+        <v>6</v>
+      </c>
+      <c r="S28" s="67">
+        <v>3</v>
+      </c>
+      <c r="T28" s="67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" s="87" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="112" t="s">
+        <v>538</v>
+      </c>
+      <c r="B29" s="86" t="s">
+        <v>566</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>435</v>
+      </c>
+      <c r="D29" s="146" t="s">
+        <v>436</v>
+      </c>
+      <c r="E29" s="95"/>
+      <c r="F29" s="86" t="s">
+        <v>537</v>
+      </c>
+      <c r="G29" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="86"/>
+      <c r="I29" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="97" t="s">
+        <v>585</v>
+      </c>
+      <c r="K29" s="97"/>
+      <c r="L29" s="68">
+        <v>6</v>
+      </c>
+      <c r="M29" s="67">
+        <v>6</v>
+      </c>
+      <c r="N29" s="67">
+        <v>4</v>
+      </c>
+      <c r="O29" s="67">
+        <v>3</v>
+      </c>
+      <c r="P29" s="135"/>
+    </row>
+    <row r="30" spans="1:48" s="87" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="112" t="s">
+        <v>538</v>
+      </c>
+      <c r="B30" s="86" t="s">
+        <v>566</v>
+      </c>
+      <c r="C30" s="86" t="s">
+        <v>459</v>
+      </c>
+      <c r="D30" s="109" t="s">
+        <v>460</v>
+      </c>
+      <c r="E30" s="95"/>
+      <c r="F30" s="86" t="s">
+        <v>537</v>
+      </c>
+      <c r="G30" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="86"/>
+      <c r="I30" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="86" t="s">
+        <v>563</v>
+      </c>
+      <c r="K30" s="86" t="s">
+        <v>586</v>
+      </c>
+      <c r="L30" s="68">
+        <v>6</v>
+      </c>
+      <c r="M30" s="67">
+        <v>6</v>
+      </c>
+      <c r="N30" s="67">
+        <v>3</v>
+      </c>
+      <c r="O30" s="67">
+        <v>4</v>
+      </c>
+      <c r="P30" s="135"/>
+    </row>
+    <row r="31" spans="1:48" s="87" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="112" t="s">
         <v>539</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B31" s="86" t="s">
         <v>566</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C31" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="87" t="s">
+      <c r="D31" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="111">
+      <c r="E31" s="95">
         <v>2019</v>
       </c>
-      <c r="F23" s="87" t="s">
+      <c r="F31" s="86" t="s">
         <v>537</v>
       </c>
-      <c r="G23" s="87" t="s">
+      <c r="G31" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="H23" s="87"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="97" t="s">
+        <v>563</v>
+      </c>
+      <c r="K31" s="97" t="s">
+        <v>587</v>
+      </c>
+      <c r="L31" s="68">
+        <v>6</v>
+      </c>
+      <c r="M31" s="67">
+        <v>7</v>
+      </c>
+      <c r="N31" s="67">
+        <v>2</v>
+      </c>
+      <c r="O31" s="67">
+        <v>4</v>
+      </c>
+      <c r="P31" s="135"/>
+    </row>
+    <row r="32" spans="1:48" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="95"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="P32" s="135"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="110" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="110" t="s">
+        <v>574</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N23" xr:uid="{48964EBD-FBE9-433B-8AE9-6BDEB6875024}">
-    <sortState ref="A2:N23">
-      <sortCondition ref="B1:B23"/>
+  <autoFilter ref="A2:T31" xr:uid="{3FDC0C5D-302B-4A30-BC10-9A0E2C64E6DD}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="MICS6"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A20:T31">
+      <sortCondition ref="D2:D31"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="2">
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="Q1:T1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3986,7 +5194,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="820" topLeftCell="A821" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2463" sqref="E2463:H2463"/>
+      <selection pane="bottomLeft" activeCell="E3104" sqref="E3104:H3104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4565,7 +5773,7 @@
       </c>
       <c r="E27" s="68"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -4597,7 +5805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -4629,7 +5837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -4661,7 +5869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -4693,7 +5901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" s="69" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="69" t="s">
         <v>79</v>
       </c>
@@ -4726,7 +5934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" s="69" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="69" t="s">
         <v>79</v>
       </c>
@@ -4759,7 +5967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" s="69" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="69" t="s">
         <v>79</v>
       </c>
@@ -4792,7 +6000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" s="69" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="69" t="s">
         <v>79</v>
       </c>
@@ -4825,7 +6033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" s="69" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="69" t="s">
         <v>79</v>
       </c>
@@ -4858,7 +6066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" s="69" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="69" t="s">
         <v>79</v>
       </c>
@@ -4891,7 +6099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" s="69" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="69" t="s">
         <v>79</v>
       </c>
@@ -4924,7 +6132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" s="69" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="69" t="s">
         <v>79</v>
       </c>
@@ -4957,7 +6165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" s="69" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="69" t="s">
         <v>79</v>
       </c>
@@ -31938,7 +33146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1003" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1003" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1003" t="s">
         <v>213</v>
       </c>
@@ -31967,7 +33175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1004" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1004" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1004" t="s">
         <v>213</v>
       </c>
@@ -31996,7 +33204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1005" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1005" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1005" t="s">
         <v>213</v>
       </c>
@@ -32025,7 +33233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1006" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1006" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1006" t="s">
         <v>213</v>
       </c>
@@ -32054,7 +33262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1007" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1007" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1007" t="s">
         <v>213</v>
       </c>
@@ -32064,16 +33272,16 @@
       <c r="C1007">
         <v>2009</v>
       </c>
-      <c r="E1007" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1007" s="67">
-        <v>6</v>
-      </c>
-      <c r="G1007" s="67">
-        <v>3</v>
-      </c>
-      <c r="H1007" s="67">
+      <c r="E1007" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1007" s="137">
+        <v>6</v>
+      </c>
+      <c r="G1007" s="137">
+        <v>3</v>
+      </c>
+      <c r="H1007" s="137">
         <v>3</v>
       </c>
       <c r="J1007">
@@ -32083,7 +33291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1008" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1008" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1008" t="s">
         <v>213</v>
       </c>
@@ -32093,16 +33301,16 @@
       <c r="C1008">
         <v>2010</v>
       </c>
-      <c r="E1008" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1008" s="67">
-        <v>6</v>
-      </c>
-      <c r="G1008" s="67">
-        <v>3</v>
-      </c>
-      <c r="H1008" s="67">
+      <c r="E1008" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1008" s="137">
+        <v>6</v>
+      </c>
+      <c r="G1008" s="137">
+        <v>3</v>
+      </c>
+      <c r="H1008" s="137">
         <v>3</v>
       </c>
       <c r="J1008">
@@ -32112,7 +33320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1009" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1009" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1009" t="s">
         <v>213</v>
       </c>
@@ -32122,16 +33330,16 @@
       <c r="C1009">
         <v>2011</v>
       </c>
-      <c r="E1009" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1009" s="67">
-        <v>6</v>
-      </c>
-      <c r="G1009" s="67">
-        <v>3</v>
-      </c>
-      <c r="H1009" s="67">
+      <c r="E1009" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1009" s="137">
+        <v>6</v>
+      </c>
+      <c r="G1009" s="137">
+        <v>3</v>
+      </c>
+      <c r="H1009" s="137">
         <v>3</v>
       </c>
       <c r="J1009">
@@ -32141,7 +33349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1010" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1010" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1010" t="s">
         <v>213</v>
       </c>
@@ -32151,16 +33359,16 @@
       <c r="C1010">
         <v>2012</v>
       </c>
-      <c r="E1010" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1010" s="67">
-        <v>6</v>
-      </c>
-      <c r="G1010" s="67">
-        <v>3</v>
-      </c>
-      <c r="H1010" s="67">
+      <c r="E1010" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1010" s="137">
+        <v>6</v>
+      </c>
+      <c r="G1010" s="137">
+        <v>3</v>
+      </c>
+      <c r="H1010" s="137">
         <v>3</v>
       </c>
       <c r="J1010">
@@ -32170,7 +33378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1011" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1011" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1011" t="s">
         <v>213</v>
       </c>
@@ -32180,16 +33388,16 @@
       <c r="C1011">
         <v>2013</v>
       </c>
-      <c r="E1011" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1011" s="67">
-        <v>6</v>
-      </c>
-      <c r="G1011" s="67">
-        <v>3</v>
-      </c>
-      <c r="H1011" s="67">
+      <c r="E1011" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1011" s="137">
+        <v>6</v>
+      </c>
+      <c r="G1011" s="137">
+        <v>3</v>
+      </c>
+      <c r="H1011" s="137">
         <v>3</v>
       </c>
       <c r="J1011">
@@ -32199,7 +33407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1012" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1012" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1012" t="s">
         <v>213</v>
       </c>
@@ -32209,16 +33417,16 @@
       <c r="C1012">
         <v>2014</v>
       </c>
-      <c r="E1012" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1012" s="67">
-        <v>6</v>
-      </c>
-      <c r="G1012" s="67">
-        <v>3</v>
-      </c>
-      <c r="H1012" s="67">
+      <c r="E1012" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1012" s="137">
+        <v>6</v>
+      </c>
+      <c r="G1012" s="137">
+        <v>3</v>
+      </c>
+      <c r="H1012" s="137">
         <v>3</v>
       </c>
       <c r="J1012">
@@ -32228,7 +33436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1013" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1013" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1013" t="s">
         <v>213</v>
       </c>
@@ -32238,16 +33446,16 @@
       <c r="C1013">
         <v>2015</v>
       </c>
-      <c r="E1013" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1013" s="67">
-        <v>6</v>
-      </c>
-      <c r="G1013" s="67">
-        <v>3</v>
-      </c>
-      <c r="H1013" s="67">
+      <c r="E1013" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1013" s="137">
+        <v>6</v>
+      </c>
+      <c r="G1013" s="137">
+        <v>3</v>
+      </c>
+      <c r="H1013" s="137">
         <v>3</v>
       </c>
       <c r="J1013">
@@ -32257,7 +33465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1014" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1014" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1014" t="s">
         <v>213</v>
       </c>
@@ -32267,16 +33475,16 @@
       <c r="C1014">
         <v>2016</v>
       </c>
-      <c r="E1014" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1014" s="67">
-        <v>6</v>
-      </c>
-      <c r="G1014" s="67">
-        <v>3</v>
-      </c>
-      <c r="H1014" s="67">
+      <c r="E1014" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1014" s="137">
+        <v>6</v>
+      </c>
+      <c r="G1014" s="137">
+        <v>3</v>
+      </c>
+      <c r="H1014" s="137">
         <v>3</v>
       </c>
       <c r="J1014">
@@ -32286,7 +33494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1015" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1015" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1015" t="s">
         <v>213</v>
       </c>
@@ -32296,16 +33504,16 @@
       <c r="C1015">
         <v>2017</v>
       </c>
-      <c r="E1015" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1015" s="67">
-        <v>6</v>
-      </c>
-      <c r="G1015" s="67">
-        <v>3</v>
-      </c>
-      <c r="H1015" s="67">
+      <c r="E1015" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1015" s="137">
+        <v>6</v>
+      </c>
+      <c r="G1015" s="137">
+        <v>3</v>
+      </c>
+      <c r="H1015" s="137">
         <v>3</v>
       </c>
       <c r="J1015">
@@ -44624,16 +45832,16 @@
       <c r="C1490">
         <v>2011</v>
       </c>
-      <c r="E1490" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1490" s="67">
-        <v>5</v>
-      </c>
-      <c r="G1490" s="67">
-        <v>4</v>
-      </c>
-      <c r="H1490" s="67">
+      <c r="E1490" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1490" s="137">
+        <v>5</v>
+      </c>
+      <c r="G1490" s="137">
+        <v>4</v>
+      </c>
+      <c r="H1490" s="137">
         <v>3</v>
       </c>
       <c r="J1490">
@@ -44653,16 +45861,16 @@
       <c r="C1491">
         <v>2012</v>
       </c>
-      <c r="E1491" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1491" s="67">
-        <v>5</v>
-      </c>
-      <c r="G1491" s="67">
-        <v>4</v>
-      </c>
-      <c r="H1491" s="67">
+      <c r="E1491" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1491" s="137">
+        <v>5</v>
+      </c>
+      <c r="G1491" s="137">
+        <v>4</v>
+      </c>
+      <c r="H1491" s="137">
         <v>3</v>
       </c>
       <c r="J1491">
@@ -44682,16 +45890,16 @@
       <c r="C1492">
         <v>2013</v>
       </c>
-      <c r="E1492" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1492" s="67">
-        <v>5</v>
-      </c>
-      <c r="G1492" s="67">
-        <v>4</v>
-      </c>
-      <c r="H1492" s="67">
+      <c r="E1492" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1492" s="137">
+        <v>5</v>
+      </c>
+      <c r="G1492" s="137">
+        <v>4</v>
+      </c>
+      <c r="H1492" s="137">
         <v>3</v>
       </c>
       <c r="J1492">
@@ -44711,16 +45919,16 @@
       <c r="C1493">
         <v>2014</v>
       </c>
-      <c r="E1493" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1493" s="67">
-        <v>5</v>
-      </c>
-      <c r="G1493" s="67">
-        <v>4</v>
-      </c>
-      <c r="H1493" s="67">
+      <c r="E1493" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1493" s="137">
+        <v>5</v>
+      </c>
+      <c r="G1493" s="137">
+        <v>4</v>
+      </c>
+      <c r="H1493" s="137">
         <v>3</v>
       </c>
       <c r="J1493">
@@ -44740,16 +45948,16 @@
       <c r="C1494">
         <v>2015</v>
       </c>
-      <c r="E1494" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1494" s="67">
-        <v>5</v>
-      </c>
-      <c r="G1494" s="67">
-        <v>4</v>
-      </c>
-      <c r="H1494" s="67">
+      <c r="E1494" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1494" s="137">
+        <v>5</v>
+      </c>
+      <c r="G1494" s="137">
+        <v>4</v>
+      </c>
+      <c r="H1494" s="137">
         <v>3</v>
       </c>
       <c r="J1494">
@@ -44769,16 +45977,16 @@
       <c r="C1495">
         <v>2016</v>
       </c>
-      <c r="E1495" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1495" s="67">
-        <v>5</v>
-      </c>
-      <c r="G1495" s="67">
-        <v>4</v>
-      </c>
-      <c r="H1495" s="67">
+      <c r="E1495" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1495" s="137">
+        <v>5</v>
+      </c>
+      <c r="G1495" s="137">
+        <v>4</v>
+      </c>
+      <c r="H1495" s="137">
         <v>3</v>
       </c>
       <c r="J1495">
@@ -44798,16 +46006,16 @@
       <c r="C1496">
         <v>2017</v>
       </c>
-      <c r="E1496" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1496" s="67">
-        <v>5</v>
-      </c>
-      <c r="G1496" s="67">
-        <v>4</v>
-      </c>
-      <c r="H1496" s="67">
+      <c r="E1496" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1496" s="137">
+        <v>5</v>
+      </c>
+      <c r="G1496" s="137">
+        <v>4</v>
+      </c>
+      <c r="H1496" s="137">
         <v>3</v>
       </c>
       <c r="J1496">
@@ -53288,16 +54496,16 @@
       <c r="C1800">
         <v>2009</v>
       </c>
-      <c r="E1800" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1800" s="67">
-        <v>5</v>
-      </c>
-      <c r="G1800" s="67">
-        <v>4</v>
-      </c>
-      <c r="H1800" s="67">
+      <c r="E1800" s="138">
+        <v>6</v>
+      </c>
+      <c r="F1800" s="139">
+        <v>5</v>
+      </c>
+      <c r="G1800" s="139">
+        <v>4</v>
+      </c>
+      <c r="H1800" s="139">
         <v>2</v>
       </c>
       <c r="J1800">
@@ -53317,16 +54525,16 @@
       <c r="C1801">
         <v>2010</v>
       </c>
-      <c r="E1801" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1801" s="67">
-        <v>5</v>
-      </c>
-      <c r="G1801" s="67">
-        <v>4</v>
-      </c>
-      <c r="H1801" s="67">
+      <c r="E1801" s="138">
+        <v>6</v>
+      </c>
+      <c r="F1801" s="139">
+        <v>5</v>
+      </c>
+      <c r="G1801" s="139">
+        <v>4</v>
+      </c>
+      <c r="H1801" s="139">
         <v>2</v>
       </c>
       <c r="J1801">
@@ -53346,16 +54554,16 @@
       <c r="C1802">
         <v>2011</v>
       </c>
-      <c r="E1802" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1802" s="67">
-        <v>5</v>
-      </c>
-      <c r="G1802" s="67">
-        <v>4</v>
-      </c>
-      <c r="H1802" s="67">
+      <c r="E1802" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1802" s="137">
+        <v>5</v>
+      </c>
+      <c r="G1802" s="137">
+        <v>4</v>
+      </c>
+      <c r="H1802" s="137">
         <v>3</v>
       </c>
       <c r="J1802">
@@ -53375,16 +54583,16 @@
       <c r="C1803">
         <v>2012</v>
       </c>
-      <c r="E1803" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1803" s="67">
-        <v>5</v>
-      </c>
-      <c r="G1803" s="67">
-        <v>4</v>
-      </c>
-      <c r="H1803" s="67">
+      <c r="E1803" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1803" s="137">
+        <v>5</v>
+      </c>
+      <c r="G1803" s="137">
+        <v>4</v>
+      </c>
+      <c r="H1803" s="137">
         <v>3</v>
       </c>
       <c r="J1803">
@@ -53404,16 +54612,16 @@
       <c r="C1804">
         <v>2013</v>
       </c>
-      <c r="E1804" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1804" s="67">
-        <v>5</v>
-      </c>
-      <c r="G1804" s="67">
-        <v>4</v>
-      </c>
-      <c r="H1804" s="67">
+      <c r="E1804" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1804" s="137">
+        <v>5</v>
+      </c>
+      <c r="G1804" s="137">
+        <v>4</v>
+      </c>
+      <c r="H1804" s="137">
         <v>3</v>
       </c>
       <c r="J1804">
@@ -53433,16 +54641,16 @@
       <c r="C1805">
         <v>2014</v>
       </c>
-      <c r="E1805" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1805" s="67">
-        <v>5</v>
-      </c>
-      <c r="G1805" s="67">
-        <v>4</v>
-      </c>
-      <c r="H1805" s="67">
+      <c r="E1805" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1805" s="137">
+        <v>5</v>
+      </c>
+      <c r="G1805" s="137">
+        <v>4</v>
+      </c>
+      <c r="H1805" s="137">
         <v>3</v>
       </c>
       <c r="J1805">
@@ -53462,16 +54670,16 @@
       <c r="C1806">
         <v>2015</v>
       </c>
-      <c r="E1806" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1806" s="67">
-        <v>5</v>
-      </c>
-      <c r="G1806" s="67">
-        <v>4</v>
-      </c>
-      <c r="H1806" s="67">
+      <c r="E1806" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1806" s="137">
+        <v>5</v>
+      </c>
+      <c r="G1806" s="137">
+        <v>4</v>
+      </c>
+      <c r="H1806" s="137">
         <v>3</v>
       </c>
       <c r="J1806">
@@ -53491,16 +54699,16 @@
       <c r="C1807">
         <v>2016</v>
       </c>
-      <c r="E1807" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1807" s="67">
-        <v>5</v>
-      </c>
-      <c r="G1807" s="67">
-        <v>4</v>
-      </c>
-      <c r="H1807" s="67">
+      <c r="E1807" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1807" s="137">
+        <v>5</v>
+      </c>
+      <c r="G1807" s="137">
+        <v>4</v>
+      </c>
+      <c r="H1807" s="137">
         <v>3</v>
       </c>
       <c r="J1807">
@@ -53520,16 +54728,16 @@
       <c r="C1808">
         <v>2017</v>
       </c>
-      <c r="E1808" s="68">
-        <v>6</v>
-      </c>
-      <c r="F1808" s="67">
-        <v>5</v>
-      </c>
-      <c r="G1808" s="67">
-        <v>4</v>
-      </c>
-      <c r="H1808" s="67">
+      <c r="E1808" s="136">
+        <v>6</v>
+      </c>
+      <c r="F1808" s="137">
+        <v>5</v>
+      </c>
+      <c r="G1808" s="137">
+        <v>4</v>
+      </c>
+      <c r="H1808" s="137">
         <v>3</v>
       </c>
       <c r="J1808">
@@ -72206,16 +73414,16 @@
       <c r="C2506">
         <v>2013</v>
       </c>
-      <c r="E2506" s="68">
-        <v>6</v>
-      </c>
-      <c r="F2506" s="67">
-        <v>6</v>
-      </c>
-      <c r="G2506" s="67">
-        <v>3</v>
-      </c>
-      <c r="H2506" s="67">
+      <c r="E2506" s="136">
+        <v>6</v>
+      </c>
+      <c r="F2506" s="137">
+        <v>6</v>
+      </c>
+      <c r="G2506" s="137">
+        <v>3</v>
+      </c>
+      <c r="H2506" s="137">
         <v>4</v>
       </c>
       <c r="J2506">
@@ -72235,16 +73443,16 @@
       <c r="C2507">
         <v>2014</v>
       </c>
-      <c r="E2507" s="68">
-        <v>6</v>
-      </c>
-      <c r="F2507" s="67">
-        <v>6</v>
-      </c>
-      <c r="G2507" s="67">
-        <v>3</v>
-      </c>
-      <c r="H2507" s="67">
+      <c r="E2507" s="136">
+        <v>6</v>
+      </c>
+      <c r="F2507" s="137">
+        <v>6</v>
+      </c>
+      <c r="G2507" s="137">
+        <v>3</v>
+      </c>
+      <c r="H2507" s="137">
         <v>4</v>
       </c>
       <c r="J2507">
@@ -72264,16 +73472,16 @@
       <c r="C2508">
         <v>2015</v>
       </c>
-      <c r="E2508" s="68">
-        <v>6</v>
-      </c>
-      <c r="F2508" s="67">
-        <v>6</v>
-      </c>
-      <c r="G2508" s="67">
-        <v>3</v>
-      </c>
-      <c r="H2508" s="67">
+      <c r="E2508" s="136">
+        <v>6</v>
+      </c>
+      <c r="F2508" s="137">
+        <v>6</v>
+      </c>
+      <c r="G2508" s="137">
+        <v>3</v>
+      </c>
+      <c r="H2508" s="137">
         <v>4</v>
       </c>
       <c r="J2508">
@@ -72293,16 +73501,16 @@
       <c r="C2509">
         <v>2016</v>
       </c>
-      <c r="E2509" s="68">
-        <v>6</v>
-      </c>
-      <c r="F2509" s="67">
-        <v>6</v>
-      </c>
-      <c r="G2509" s="67">
-        <v>3</v>
-      </c>
-      <c r="H2509" s="67">
+      <c r="E2509" s="136">
+        <v>6</v>
+      </c>
+      <c r="F2509" s="137">
+        <v>6</v>
+      </c>
+      <c r="G2509" s="137">
+        <v>3</v>
+      </c>
+      <c r="H2509" s="137">
         <v>4</v>
       </c>
       <c r="J2509">
@@ -72322,16 +73530,16 @@
       <c r="C2510">
         <v>2017</v>
       </c>
-      <c r="E2510" s="68">
-        <v>6</v>
-      </c>
-      <c r="F2510" s="67">
-        <v>6</v>
-      </c>
-      <c r="G2510" s="67">
-        <v>3</v>
-      </c>
-      <c r="H2510" s="67">
+      <c r="E2510" s="136">
+        <v>6</v>
+      </c>
+      <c r="F2510" s="137">
+        <v>6</v>
+      </c>
+      <c r="G2510" s="137">
+        <v>3</v>
+      </c>
+      <c r="H2510" s="137">
         <v>4</v>
       </c>
       <c r="J2510">
@@ -88936,7 +90144,7 @@
   <autoFilter ref="A1:K3108" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Albania"/>
+        <filter val="Georgia"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -90135,4 +91343,2726 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2334EA06-40C5-4C08-8DB3-600594009249}">
+  <dimension ref="B1:J241"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="26.08984375" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="65"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" s="150" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+      <c r="B1" s="150" t="s">
+        <v>768</v>
+      </c>
+      <c r="F1" s="151"/>
+      <c r="G1" s="150" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>590</v>
+      </c>
+      <c r="G3" s="148" t="s">
+        <v>590</v>
+      </c>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>771</v>
+      </c>
+      <c r="G5" s="148" t="s">
+        <v>591</v>
+      </c>
+      <c r="H5" s="148" t="s">
+        <v>592</v>
+      </c>
+      <c r="I5" s="148" t="s">
+        <v>593</v>
+      </c>
+      <c r="J5" s="148" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="148"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G7" s="148" t="s">
+        <v>595</v>
+      </c>
+      <c r="H7" s="149">
+        <v>4126</v>
+      </c>
+      <c r="I7" s="148">
+        <v>6.67</v>
+      </c>
+      <c r="J7" s="148">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G8" s="148" t="s">
+        <v>596</v>
+      </c>
+      <c r="H8" s="149">
+        <v>10581</v>
+      </c>
+      <c r="I8" s="148">
+        <v>17.11</v>
+      </c>
+      <c r="J8" s="148">
+        <v>23.78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G9" s="148" t="s">
+        <v>597</v>
+      </c>
+      <c r="H9" s="149">
+        <v>8910</v>
+      </c>
+      <c r="I9" s="148">
+        <v>14.4</v>
+      </c>
+      <c r="J9" s="148">
+        <v>38.18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G10" s="148" t="s">
+        <v>598</v>
+      </c>
+      <c r="H10" s="149">
+        <v>8148</v>
+      </c>
+      <c r="I10" s="148">
+        <v>13.17</v>
+      </c>
+      <c r="J10" s="148">
+        <v>51.35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G11" s="148" t="s">
+        <v>599</v>
+      </c>
+      <c r="H11" s="149">
+        <v>7150</v>
+      </c>
+      <c r="I11" s="148">
+        <v>11.56</v>
+      </c>
+      <c r="J11" s="148">
+        <v>62.91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G12" s="148" t="s">
+        <v>600</v>
+      </c>
+      <c r="H12" s="149">
+        <v>8011</v>
+      </c>
+      <c r="I12" s="148">
+        <v>12.95</v>
+      </c>
+      <c r="J12" s="148">
+        <v>75.86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G13" s="148" t="s">
+        <v>601</v>
+      </c>
+      <c r="H13" s="149">
+        <v>8206</v>
+      </c>
+      <c r="I13" s="148">
+        <v>13.27</v>
+      </c>
+      <c r="J13" s="148">
+        <v>89.13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G14" s="148" t="s">
+        <v>602</v>
+      </c>
+      <c r="H14" s="149">
+        <v>6726</v>
+      </c>
+      <c r="I14" s="148">
+        <v>10.87</v>
+      </c>
+      <c r="J14" s="148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G16" s="148" t="s">
+        <v>603</v>
+      </c>
+      <c r="H16" s="149">
+        <v>61858</v>
+      </c>
+      <c r="I16" s="148">
+        <v>100</v>
+      </c>
+      <c r="J16" s="148"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>604</v>
+      </c>
+      <c r="G19" s="148" t="s">
+        <v>604</v>
+      </c>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="148"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>771</v>
+      </c>
+      <c r="G21" s="148" t="s">
+        <v>591</v>
+      </c>
+      <c r="H21" s="148" t="s">
+        <v>592</v>
+      </c>
+      <c r="I21" s="148" t="s">
+        <v>593</v>
+      </c>
+      <c r="J21" s="148" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G23" s="148" t="s">
+        <v>605</v>
+      </c>
+      <c r="H23" s="149">
+        <v>3880</v>
+      </c>
+      <c r="I23" s="148">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="J23" s="148">
+        <v>9.3800000000000008</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G24" s="148" t="s">
+        <v>606</v>
+      </c>
+      <c r="H24" s="149">
+        <v>3677</v>
+      </c>
+      <c r="I24" s="148">
+        <v>8.89</v>
+      </c>
+      <c r="J24" s="148">
+        <v>18.260000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G25" s="148" t="s">
+        <v>607</v>
+      </c>
+      <c r="H25" s="149">
+        <v>4310</v>
+      </c>
+      <c r="I25" s="148">
+        <v>10.42</v>
+      </c>
+      <c r="J25" s="148">
+        <v>28.68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G26" s="148" t="s">
+        <v>608</v>
+      </c>
+      <c r="H26" s="149">
+        <v>3940</v>
+      </c>
+      <c r="I26" s="148">
+        <v>9.52</v>
+      </c>
+      <c r="J26" s="148">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G27" s="148" t="s">
+        <v>609</v>
+      </c>
+      <c r="H27" s="149">
+        <v>3146</v>
+      </c>
+      <c r="I27" s="148">
+        <v>7.6</v>
+      </c>
+      <c r="J27" s="148">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G28" s="148" t="s">
+        <v>610</v>
+      </c>
+      <c r="H28" s="149">
+        <v>4365</v>
+      </c>
+      <c r="I28" s="148">
+        <v>10.55</v>
+      </c>
+      <c r="J28" s="148">
+        <v>56.35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G29" s="148" t="s">
+        <v>611</v>
+      </c>
+      <c r="H29" s="149">
+        <v>4599</v>
+      </c>
+      <c r="I29" s="148">
+        <v>11.11</v>
+      </c>
+      <c r="J29" s="148">
+        <v>67.47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G30" s="148" t="s">
+        <v>612</v>
+      </c>
+      <c r="H30" s="149">
+        <v>3505</v>
+      </c>
+      <c r="I30" s="148">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="J30" s="148">
+        <v>75.94</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G31" s="148" t="s">
+        <v>613</v>
+      </c>
+      <c r="H31" s="149">
+        <v>4707</v>
+      </c>
+      <c r="I31" s="148">
+        <v>11.38</v>
+      </c>
+      <c r="J31" s="148">
+        <v>87.31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G32" s="148" t="s">
+        <v>614</v>
+      </c>
+      <c r="H32" s="149">
+        <v>5249</v>
+      </c>
+      <c r="I32" s="148">
+        <v>12.69</v>
+      </c>
+      <c r="J32" s="148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G34" s="148" t="s">
+        <v>603</v>
+      </c>
+      <c r="H34" s="149">
+        <v>41378</v>
+      </c>
+      <c r="I34" s="148">
+        <v>100</v>
+      </c>
+      <c r="J34" s="148"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>615</v>
+      </c>
+      <c r="G37" s="152" t="s">
+        <v>615</v>
+      </c>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="152"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>734</v>
+      </c>
+      <c r="C39" t="s">
+        <v>594</v>
+      </c>
+      <c r="G39" s="152" t="s">
+        <v>591</v>
+      </c>
+      <c r="H39" s="152" t="s">
+        <v>592</v>
+      </c>
+      <c r="I39" s="152" t="s">
+        <v>593</v>
+      </c>
+      <c r="J39" s="152" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="152"/>
+      <c r="J40" s="152"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>735</v>
+      </c>
+      <c r="C41">
+        <v>12.65</v>
+      </c>
+      <c r="G41" s="152" t="s">
+        <v>616</v>
+      </c>
+      <c r="H41" s="153">
+        <v>7612</v>
+      </c>
+      <c r="I41" s="152">
+        <v>5.79</v>
+      </c>
+      <c r="J41" s="152">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>736</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="G42" s="152" t="s">
+        <v>617</v>
+      </c>
+      <c r="H42" s="153">
+        <v>6785</v>
+      </c>
+      <c r="I42" s="152">
+        <v>5.16</v>
+      </c>
+      <c r="J42" s="152">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G43" s="152" t="s">
+        <v>618</v>
+      </c>
+      <c r="H43" s="153">
+        <v>14316</v>
+      </c>
+      <c r="I43" s="152">
+        <v>10.9</v>
+      </c>
+      <c r="J43" s="152">
+        <v>21.85</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>737</v>
+      </c>
+      <c r="G44" s="152" t="s">
+        <v>619</v>
+      </c>
+      <c r="H44" s="153">
+        <v>7579</v>
+      </c>
+      <c r="I44" s="152">
+        <v>5.77</v>
+      </c>
+      <c r="J44" s="152">
+        <v>27.62</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G45" s="152" t="s">
+        <v>620</v>
+      </c>
+      <c r="H45" s="153">
+        <v>6878</v>
+      </c>
+      <c r="I45" s="152">
+        <v>5.23</v>
+      </c>
+      <c r="J45" s="152">
+        <v>32.86</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G46" s="152" t="s">
+        <v>621</v>
+      </c>
+      <c r="H46" s="153">
+        <v>6827</v>
+      </c>
+      <c r="I46" s="152">
+        <v>5.2</v>
+      </c>
+      <c r="J46" s="152">
+        <v>38.049999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G47" s="152" t="s">
+        <v>622</v>
+      </c>
+      <c r="H47" s="153">
+        <v>4971</v>
+      </c>
+      <c r="I47" s="152">
+        <v>3.78</v>
+      </c>
+      <c r="J47" s="152">
+        <v>41.83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G48" s="152" t="s">
+        <v>623</v>
+      </c>
+      <c r="H48" s="153">
+        <v>6696</v>
+      </c>
+      <c r="I48" s="152">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J48" s="152">
+        <v>46.93</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G49" s="152" t="s">
+        <v>624</v>
+      </c>
+      <c r="H49" s="153">
+        <v>5803</v>
+      </c>
+      <c r="I49" s="152">
+        <v>4.42</v>
+      </c>
+      <c r="J49" s="152">
+        <v>51.35</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G50" s="152" t="s">
+        <v>625</v>
+      </c>
+      <c r="H50" s="153">
+        <v>7529</v>
+      </c>
+      <c r="I50" s="152">
+        <v>5.73</v>
+      </c>
+      <c r="J50" s="152">
+        <v>57.08</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G51" s="152" t="s">
+        <v>626</v>
+      </c>
+      <c r="H51" s="153">
+        <v>8095</v>
+      </c>
+      <c r="I51" s="152">
+        <v>6.16</v>
+      </c>
+      <c r="J51" s="152">
+        <v>63.24</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G52" s="152" t="s">
+        <v>627</v>
+      </c>
+      <c r="H52" s="153">
+        <v>7134</v>
+      </c>
+      <c r="I52" s="152">
+        <v>5.43</v>
+      </c>
+      <c r="J52" s="152">
+        <v>68.67</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G53" s="152" t="s">
+        <v>628</v>
+      </c>
+      <c r="H53" s="153">
+        <v>7035</v>
+      </c>
+      <c r="I53" s="152">
+        <v>5.35</v>
+      </c>
+      <c r="J53" s="152">
+        <v>74.02</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G54" s="152" t="s">
+        <v>629</v>
+      </c>
+      <c r="H54" s="153">
+        <v>7560</v>
+      </c>
+      <c r="I54" s="152">
+        <v>5.75</v>
+      </c>
+      <c r="J54" s="152">
+        <v>79.78</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G55" s="152" t="s">
+        <v>630</v>
+      </c>
+      <c r="H55" s="153">
+        <v>7035</v>
+      </c>
+      <c r="I55" s="152">
+        <v>5.35</v>
+      </c>
+      <c r="J55" s="152">
+        <v>85.13</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G56" s="152" t="s">
+        <v>631</v>
+      </c>
+      <c r="H56" s="153">
+        <v>4824</v>
+      </c>
+      <c r="I56" s="152">
+        <v>3.67</v>
+      </c>
+      <c r="J56" s="152">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G57" s="152" t="s">
+        <v>632</v>
+      </c>
+      <c r="H57" s="153">
+        <v>7745</v>
+      </c>
+      <c r="I57" s="152">
+        <v>5.89</v>
+      </c>
+      <c r="J57" s="152">
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G58" s="152" t="s">
+        <v>633</v>
+      </c>
+      <c r="H58" s="153">
+        <v>6970</v>
+      </c>
+      <c r="I58" s="152">
+        <v>5.3</v>
+      </c>
+      <c r="J58" s="152">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G59" s="152"/>
+      <c r="H59" s="152"/>
+      <c r="I59" s="152"/>
+      <c r="J59" s="152"/>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G60" s="152" t="s">
+        <v>603</v>
+      </c>
+      <c r="H60" s="153">
+        <v>131394</v>
+      </c>
+      <c r="I60" s="152">
+        <v>100</v>
+      </c>
+      <c r="J60" s="152"/>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G61" s="156" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G62" s="156"/>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G63" s="156"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>634</v>
+      </c>
+      <c r="G65" s="148" t="s">
+        <v>634</v>
+      </c>
+      <c r="H65" s="148"/>
+      <c r="I65" s="148"/>
+      <c r="J65" s="148"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G66" s="148"/>
+      <c r="H66" s="148"/>
+      <c r="I66" s="148"/>
+      <c r="J66" s="148"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>771</v>
+      </c>
+      <c r="G67" s="148" t="s">
+        <v>591</v>
+      </c>
+      <c r="H67" s="148" t="s">
+        <v>592</v>
+      </c>
+      <c r="I67" s="148" t="s">
+        <v>593</v>
+      </c>
+      <c r="J67" s="148" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G68" s="148"/>
+      <c r="H68" s="148"/>
+      <c r="I68" s="148"/>
+      <c r="J68" s="148"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G69" s="148" t="s">
+        <v>635</v>
+      </c>
+      <c r="H69" s="149">
+        <v>3515</v>
+      </c>
+      <c r="I69" s="148">
+        <v>12.47</v>
+      </c>
+      <c r="J69" s="148">
+        <v>12.47</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G70" s="148" t="s">
+        <v>636</v>
+      </c>
+      <c r="H70" s="149">
+        <v>3488</v>
+      </c>
+      <c r="I70" s="148">
+        <v>12.38</v>
+      </c>
+      <c r="J70" s="148">
+        <v>24.85</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G71" s="148" t="s">
+        <v>637</v>
+      </c>
+      <c r="H71" s="149">
+        <v>4114</v>
+      </c>
+      <c r="I71" s="148">
+        <v>14.6</v>
+      </c>
+      <c r="J71" s="148">
+        <v>39.450000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G72" s="148" t="s">
+        <v>638</v>
+      </c>
+      <c r="H72" s="149">
+        <v>4611</v>
+      </c>
+      <c r="I72" s="148">
+        <v>16.36</v>
+      </c>
+      <c r="J72" s="148">
+        <v>55.81</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G73" s="148" t="s">
+        <v>639</v>
+      </c>
+      <c r="H73" s="149">
+        <v>2663</v>
+      </c>
+      <c r="I73" s="148">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="J73" s="148">
+        <v>65.260000000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G74" s="148" t="s">
+        <v>640</v>
+      </c>
+      <c r="H74" s="149">
+        <v>2784</v>
+      </c>
+      <c r="I74" s="148">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="J74" s="148">
+        <v>75.14</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G75" s="148" t="s">
+        <v>641</v>
+      </c>
+      <c r="H75" s="149">
+        <v>2794</v>
+      </c>
+      <c r="I75" s="148">
+        <v>9.91</v>
+      </c>
+      <c r="J75" s="148">
+        <v>85.06</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G76" s="148" t="s">
+        <v>642</v>
+      </c>
+      <c r="H76" s="149">
+        <v>2397</v>
+      </c>
+      <c r="I76" s="148">
+        <v>8.51</v>
+      </c>
+      <c r="J76" s="148">
+        <v>93.56</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G77" s="148" t="s">
+        <v>643</v>
+      </c>
+      <c r="H77" s="149">
+        <v>1814</v>
+      </c>
+      <c r="I77" s="148">
+        <v>6.44</v>
+      </c>
+      <c r="J77" s="148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G78" s="148"/>
+      <c r="H78" s="148"/>
+      <c r="I78" s="148"/>
+      <c r="J78" s="148"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G79" s="148" t="s">
+        <v>603</v>
+      </c>
+      <c r="H79" s="149">
+        <v>28180</v>
+      </c>
+      <c r="I79" s="148">
+        <v>100</v>
+      </c>
+      <c r="J79" s="148"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="148" t="s">
+        <v>738</v>
+      </c>
+      <c r="C82" s="148"/>
+      <c r="G82" s="154" t="s">
+        <v>644</v>
+      </c>
+      <c r="H82" s="154" t="s">
+        <v>645</v>
+      </c>
+      <c r="I82" s="154" t="s">
+        <v>646</v>
+      </c>
+      <c r="J82" s="154"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="148"/>
+      <c r="C83" s="148"/>
+      <c r="G83" s="154"/>
+      <c r="H83" s="154"/>
+      <c r="I83" s="154"/>
+      <c r="J83" s="154"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="148" t="s">
+        <v>734</v>
+      </c>
+      <c r="C84" s="148" t="s">
+        <v>594</v>
+      </c>
+      <c r="G84" s="154" t="s">
+        <v>591</v>
+      </c>
+      <c r="H84" s="154" t="s">
+        <v>592</v>
+      </c>
+      <c r="I84" s="154" t="s">
+        <v>593</v>
+      </c>
+      <c r="J84" s="154" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="148"/>
+      <c r="C85" s="148"/>
+      <c r="G85" s="154"/>
+      <c r="H85" s="154"/>
+      <c r="I85" s="154"/>
+      <c r="J85" s="154"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B86" s="148" t="s">
+        <v>739</v>
+      </c>
+      <c r="C86" s="148">
+        <v>41.34</v>
+      </c>
+      <c r="G86" s="154" t="s">
+        <v>647</v>
+      </c>
+      <c r="H86" s="155">
+        <v>6882</v>
+      </c>
+      <c r="I86" s="154">
+        <v>6.45</v>
+      </c>
+      <c r="J86" s="154">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B87" s="148" t="s">
+        <v>740</v>
+      </c>
+      <c r="C87" s="148">
+        <v>77.98</v>
+      </c>
+      <c r="G87" s="154" t="s">
+        <v>648</v>
+      </c>
+      <c r="H87" s="155">
+        <v>4851</v>
+      </c>
+      <c r="I87" s="154">
+        <v>4.55</v>
+      </c>
+      <c r="J87" s="154">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B88" s="148" t="s">
+        <v>741</v>
+      </c>
+      <c r="C88" s="148">
+        <v>100</v>
+      </c>
+      <c r="G88" s="154" t="s">
+        <v>649</v>
+      </c>
+      <c r="H88" s="155">
+        <v>4982</v>
+      </c>
+      <c r="I88" s="154">
+        <v>4.67</v>
+      </c>
+      <c r="J88" s="154">
+        <v>15.68</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="148"/>
+      <c r="C89" s="148"/>
+      <c r="G89" s="154" t="s">
+        <v>650</v>
+      </c>
+      <c r="H89" s="155">
+        <v>5320</v>
+      </c>
+      <c r="I89" s="154">
+        <v>4.99</v>
+      </c>
+      <c r="J89" s="154">
+        <v>20.67</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="148" t="s">
+        <v>742</v>
+      </c>
+      <c r="C90" s="148"/>
+      <c r="G90" s="154" t="s">
+        <v>651</v>
+      </c>
+      <c r="H90" s="155">
+        <v>6193</v>
+      </c>
+      <c r="I90" s="154">
+        <v>5.81</v>
+      </c>
+      <c r="J90" s="154">
+        <v>26.47</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="156" t="s">
+        <v>770</v>
+      </c>
+      <c r="G91" s="154" t="s">
+        <v>652</v>
+      </c>
+      <c r="H91" s="155">
+        <v>5870</v>
+      </c>
+      <c r="I91" s="154">
+        <v>5.51</v>
+      </c>
+      <c r="J91" s="154">
+        <v>31.98</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G92" s="154" t="s">
+        <v>653</v>
+      </c>
+      <c r="H92" s="155">
+        <v>6040</v>
+      </c>
+      <c r="I92" s="154">
+        <v>5.66</v>
+      </c>
+      <c r="J92" s="154">
+        <v>37.64</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G93" s="154" t="s">
+        <v>654</v>
+      </c>
+      <c r="H93" s="155">
+        <v>5082</v>
+      </c>
+      <c r="I93" s="154">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="J93" s="154">
+        <v>42.41</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G94" s="154" t="s">
+        <v>655</v>
+      </c>
+      <c r="H94" s="155">
+        <v>6544</v>
+      </c>
+      <c r="I94" s="154">
+        <v>6.14</v>
+      </c>
+      <c r="J94" s="154">
+        <v>48.55</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G95" s="154" t="s">
+        <v>656</v>
+      </c>
+      <c r="H95" s="155">
+        <v>5995</v>
+      </c>
+      <c r="I95" s="154">
+        <v>5.62</v>
+      </c>
+      <c r="J95" s="154">
+        <v>54.17</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G96" s="154" t="s">
+        <v>657</v>
+      </c>
+      <c r="H96" s="155">
+        <v>4728</v>
+      </c>
+      <c r="I96" s="154">
+        <v>4.43</v>
+      </c>
+      <c r="J96" s="154">
+        <v>58.61</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G97" s="154" t="s">
+        <v>658</v>
+      </c>
+      <c r="H97" s="155">
+        <v>6851</v>
+      </c>
+      <c r="I97" s="154">
+        <v>6.43</v>
+      </c>
+      <c r="J97" s="154">
+        <v>65.03</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G98" s="154" t="s">
+        <v>659</v>
+      </c>
+      <c r="H98" s="155">
+        <v>7618</v>
+      </c>
+      <c r="I98" s="154">
+        <v>7.14</v>
+      </c>
+      <c r="J98" s="154">
+        <v>72.180000000000007</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G99" s="154" t="s">
+        <v>660</v>
+      </c>
+      <c r="H99" s="155">
+        <v>5584</v>
+      </c>
+      <c r="I99" s="154">
+        <v>5.24</v>
+      </c>
+      <c r="J99" s="154">
+        <v>77.41</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G100" s="154" t="s">
+        <v>661</v>
+      </c>
+      <c r="H100" s="155">
+        <v>6711</v>
+      </c>
+      <c r="I100" s="154">
+        <v>6.29</v>
+      </c>
+      <c r="J100" s="154">
+        <v>83.71</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G101" s="154" t="s">
+        <v>662</v>
+      </c>
+      <c r="H101" s="155">
+        <v>5869</v>
+      </c>
+      <c r="I101" s="154">
+        <v>5.5</v>
+      </c>
+      <c r="J101" s="154">
+        <v>89.21</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G102" s="154" t="s">
+        <v>663</v>
+      </c>
+      <c r="H102" s="155">
+        <v>5810</v>
+      </c>
+      <c r="I102" s="154">
+        <v>5.45</v>
+      </c>
+      <c r="J102" s="154">
+        <v>94.66</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G103" s="154" t="s">
+        <v>664</v>
+      </c>
+      <c r="H103" s="155">
+        <v>5693</v>
+      </c>
+      <c r="I103" s="154">
+        <v>5.34</v>
+      </c>
+      <c r="J103" s="154">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G104" s="154"/>
+      <c r="H104" s="154"/>
+      <c r="I104" s="154"/>
+      <c r="J104" s="154"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G105" s="154" t="s">
+        <v>603</v>
+      </c>
+      <c r="H105" s="155">
+        <v>106623</v>
+      </c>
+      <c r="I105" s="154">
+        <v>100</v>
+      </c>
+      <c r="J105" s="154"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>665</v>
+      </c>
+      <c r="G108" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="152" t="s">
+        <v>734</v>
+      </c>
+      <c r="C110" s="152" t="s">
+        <v>594</v>
+      </c>
+      <c r="G110" t="s">
+        <v>591</v>
+      </c>
+      <c r="H110" t="s">
+        <v>592</v>
+      </c>
+      <c r="I110" t="s">
+        <v>593</v>
+      </c>
+      <c r="J110" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="152"/>
+      <c r="C111" s="152"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="152" t="s">
+        <v>743</v>
+      </c>
+      <c r="C112" s="152">
+        <v>10.23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>666</v>
+      </c>
+      <c r="H112" s="147">
+        <v>3361</v>
+      </c>
+      <c r="I112">
+        <v>9.57</v>
+      </c>
+      <c r="J112">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B113" s="152" t="s">
+        <v>744</v>
+      </c>
+      <c r="C113" s="152">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="G113" t="s">
+        <v>667</v>
+      </c>
+      <c r="H113" s="147">
+        <v>14779</v>
+      </c>
+      <c r="I113">
+        <v>42.09</v>
+      </c>
+      <c r="J113">
+        <v>51.67</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="152" t="s">
+        <v>745</v>
+      </c>
+      <c r="C114" s="152">
+        <v>29.81</v>
+      </c>
+      <c r="G114" t="s">
+        <v>668</v>
+      </c>
+      <c r="H114" s="147">
+        <v>11635</v>
+      </c>
+      <c r="I114">
+        <v>33.14</v>
+      </c>
+      <c r="J114">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B115" s="152" t="s">
+        <v>746</v>
+      </c>
+      <c r="C115" s="152">
+        <v>38.81</v>
+      </c>
+      <c r="G115" t="s">
+        <v>669</v>
+      </c>
+      <c r="H115" s="147">
+        <v>5335</v>
+      </c>
+      <c r="I115">
+        <v>15.2</v>
+      </c>
+      <c r="J115">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116" s="152" t="s">
+        <v>747</v>
+      </c>
+      <c r="C116" s="152">
+        <v>50.38</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B117" s="152" t="s">
+        <v>748</v>
+      </c>
+      <c r="C117" s="152">
+        <v>59.75</v>
+      </c>
+      <c r="G117" t="s">
+        <v>603</v>
+      </c>
+      <c r="H117" s="147">
+        <v>35110</v>
+      </c>
+      <c r="I117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B118" s="152" t="s">
+        <v>749</v>
+      </c>
+      <c r="C118" s="152">
+        <v>69.23</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B119" s="152" t="s">
+        <v>750</v>
+      </c>
+      <c r="C119" s="152">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B120" s="152" t="s">
+        <v>751</v>
+      </c>
+      <c r="C120" s="152">
+        <v>89.83</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B121" s="152" t="s">
+        <v>752</v>
+      </c>
+      <c r="C121" s="152">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B122" s="156" t="s">
+        <v>770</v>
+      </c>
+      <c r="C122" s="154"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B123" s="156"/>
+      <c r="C123" s="154"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B124" s="156"/>
+      <c r="C124" s="154"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B126" t="s">
+        <v>670</v>
+      </c>
+      <c r="G126" s="148" t="s">
+        <v>670</v>
+      </c>
+      <c r="H126" s="148"/>
+      <c r="I126" s="148"/>
+      <c r="J126" s="148"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G127" s="148"/>
+      <c r="H127" s="148"/>
+      <c r="I127" s="148"/>
+      <c r="J127" s="148"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B128" t="s">
+        <v>771</v>
+      </c>
+      <c r="G128" s="148" t="s">
+        <v>591</v>
+      </c>
+      <c r="H128" s="148" t="s">
+        <v>592</v>
+      </c>
+      <c r="I128" s="148" t="s">
+        <v>593</v>
+      </c>
+      <c r="J128" s="148" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="129" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G129" s="148"/>
+      <c r="H129" s="148"/>
+      <c r="I129" s="148"/>
+      <c r="J129" s="148"/>
+    </row>
+    <row r="130" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G130" s="148" t="s">
+        <v>671</v>
+      </c>
+      <c r="H130" s="149">
+        <v>3371</v>
+      </c>
+      <c r="I130" s="148">
+        <v>4.07</v>
+      </c>
+      <c r="J130" s="148">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="131" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G131" s="148" t="s">
+        <v>672</v>
+      </c>
+      <c r="H131" s="149">
+        <v>3252</v>
+      </c>
+      <c r="I131" s="148">
+        <v>3.92</v>
+      </c>
+      <c r="J131" s="148">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="132" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G132" s="148" t="s">
+        <v>673</v>
+      </c>
+      <c r="H132" s="149">
+        <v>4490</v>
+      </c>
+      <c r="I132" s="148">
+        <v>5.42</v>
+      </c>
+      <c r="J132" s="148">
+        <v>13.41</v>
+      </c>
+    </row>
+    <row r="133" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G133" s="148" t="s">
+        <v>674</v>
+      </c>
+      <c r="H133" s="149">
+        <v>2533</v>
+      </c>
+      <c r="I133" s="148">
+        <v>3.06</v>
+      </c>
+      <c r="J133" s="148">
+        <v>16.47</v>
+      </c>
+    </row>
+    <row r="134" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G134" s="148" t="s">
+        <v>675</v>
+      </c>
+      <c r="H134" s="149">
+        <v>4167</v>
+      </c>
+      <c r="I134" s="148">
+        <v>5.03</v>
+      </c>
+      <c r="J134" s="148">
+        <v>21.49</v>
+      </c>
+    </row>
+    <row r="135" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G135" s="148" t="s">
+        <v>676</v>
+      </c>
+      <c r="H135" s="149">
+        <v>3527</v>
+      </c>
+      <c r="I135" s="148">
+        <v>4.26</v>
+      </c>
+      <c r="J135" s="148">
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="136" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G136" s="148" t="s">
+        <v>677</v>
+      </c>
+      <c r="H136" s="149">
+        <v>5259</v>
+      </c>
+      <c r="I136" s="148">
+        <v>6.35</v>
+      </c>
+      <c r="J136" s="148">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="137" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G137" s="148" t="s">
+        <v>678</v>
+      </c>
+      <c r="H137" s="149">
+        <v>5581</v>
+      </c>
+      <c r="I137" s="148">
+        <v>6.73</v>
+      </c>
+      <c r="J137" s="148">
+        <v>38.83</v>
+      </c>
+    </row>
+    <row r="138" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G138" s="148" t="s">
+        <v>679</v>
+      </c>
+      <c r="H138" s="149">
+        <v>3571</v>
+      </c>
+      <c r="I138" s="148">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J138" s="148">
+        <v>43.14</v>
+      </c>
+    </row>
+    <row r="139" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G139" s="148" t="s">
+        <v>680</v>
+      </c>
+      <c r="H139" s="149">
+        <v>3389</v>
+      </c>
+      <c r="I139" s="148">
+        <v>4.09</v>
+      </c>
+      <c r="J139" s="148">
+        <v>47.23</v>
+      </c>
+    </row>
+    <row r="140" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G140" s="148" t="s">
+        <v>681</v>
+      </c>
+      <c r="H140" s="149">
+        <v>2860</v>
+      </c>
+      <c r="I140" s="148">
+        <v>3.45</v>
+      </c>
+      <c r="J140" s="148">
+        <v>50.68</v>
+      </c>
+    </row>
+    <row r="141" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G141" s="148" t="s">
+        <v>682</v>
+      </c>
+      <c r="H141" s="149">
+        <v>3693</v>
+      </c>
+      <c r="I141" s="148">
+        <v>4.46</v>
+      </c>
+      <c r="J141" s="148">
+        <v>55.13</v>
+      </c>
+    </row>
+    <row r="142" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G142" s="148" t="s">
+        <v>683</v>
+      </c>
+      <c r="H142" s="149">
+        <v>2854</v>
+      </c>
+      <c r="I142" s="148">
+        <v>3.44</v>
+      </c>
+      <c r="J142" s="148">
+        <v>58.58</v>
+      </c>
+    </row>
+    <row r="143" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G143" s="148" t="s">
+        <v>684</v>
+      </c>
+      <c r="H143" s="149">
+        <v>4748</v>
+      </c>
+      <c r="I143" s="148">
+        <v>5.73</v>
+      </c>
+      <c r="J143" s="148">
+        <v>64.31</v>
+      </c>
+    </row>
+    <row r="144" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G144" s="148" t="s">
+        <v>685</v>
+      </c>
+      <c r="H144" s="149">
+        <v>3265</v>
+      </c>
+      <c r="I144" s="148">
+        <v>3.94</v>
+      </c>
+      <c r="J144" s="148">
+        <v>68.25</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G145" s="148" t="s">
+        <v>686</v>
+      </c>
+      <c r="H145" s="149">
+        <v>3421</v>
+      </c>
+      <c r="I145" s="148">
+        <v>4.13</v>
+      </c>
+      <c r="J145" s="148">
+        <v>72.38</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G146" s="148" t="s">
+        <v>687</v>
+      </c>
+      <c r="H146" s="149">
+        <v>2609</v>
+      </c>
+      <c r="I146" s="148">
+        <v>3.15</v>
+      </c>
+      <c r="J146" s="148">
+        <v>75.52</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G147" s="148" t="s">
+        <v>688</v>
+      </c>
+      <c r="H147" s="149">
+        <v>3434</v>
+      </c>
+      <c r="I147" s="148">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="J147" s="148">
+        <v>79.67</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G148" s="148" t="s">
+        <v>689</v>
+      </c>
+      <c r="H148" s="149">
+        <v>2593</v>
+      </c>
+      <c r="I148" s="148">
+        <v>3.13</v>
+      </c>
+      <c r="J148" s="148">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G149" s="148" t="s">
+        <v>690</v>
+      </c>
+      <c r="H149" s="149">
+        <v>3602</v>
+      </c>
+      <c r="I149" s="148">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="J149" s="148">
+        <v>87.14</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G150" s="148" t="s">
+        <v>691</v>
+      </c>
+      <c r="H150" s="149">
+        <v>5118</v>
+      </c>
+      <c r="I150" s="148">
+        <v>6.18</v>
+      </c>
+      <c r="J150" s="148">
+        <v>93.32</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G151" s="148" t="s">
+        <v>692</v>
+      </c>
+      <c r="H151" s="149">
+        <v>5538</v>
+      </c>
+      <c r="I151" s="148">
+        <v>6.68</v>
+      </c>
+      <c r="J151" s="148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G152" s="148"/>
+      <c r="H152" s="148"/>
+      <c r="I152" s="148"/>
+      <c r="J152" s="148"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G153" s="148" t="s">
+        <v>603</v>
+      </c>
+      <c r="H153" s="149">
+        <v>82875</v>
+      </c>
+      <c r="I153" s="148">
+        <v>100</v>
+      </c>
+      <c r="J153" s="148"/>
+    </row>
+    <row r="154" spans="2:10" s="154" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F154" s="65"/>
+      <c r="H154" s="155"/>
+    </row>
+    <row r="155" spans="2:10" s="154" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F155" s="65"/>
+      <c r="H155" s="155"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H156" s="147"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B157" t="s">
+        <v>693</v>
+      </c>
+      <c r="G157" s="148" t="s">
+        <v>693</v>
+      </c>
+      <c r="H157" s="148"/>
+      <c r="I157" s="148"/>
+      <c r="J157" s="148"/>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G158" s="148"/>
+      <c r="H158" s="148"/>
+      <c r="I158" s="148"/>
+      <c r="J158" s="148"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>771</v>
+      </c>
+      <c r="G159" s="148" t="s">
+        <v>591</v>
+      </c>
+      <c r="H159" s="148" t="s">
+        <v>592</v>
+      </c>
+      <c r="I159" s="148" t="s">
+        <v>593</v>
+      </c>
+      <c r="J159" s="148" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G160" s="148"/>
+      <c r="H160" s="148"/>
+      <c r="I160" s="148"/>
+      <c r="J160" s="148"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G161" s="148" t="s">
+        <v>694</v>
+      </c>
+      <c r="H161" s="149">
+        <v>7841</v>
+      </c>
+      <c r="I161" s="148">
+        <v>15.73</v>
+      </c>
+      <c r="J161" s="148">
+        <v>15.73</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G162" s="148" t="s">
+        <v>695</v>
+      </c>
+      <c r="H162" s="149">
+        <v>6843</v>
+      </c>
+      <c r="I162" s="148">
+        <v>13.73</v>
+      </c>
+      <c r="J162" s="148">
+        <v>29.46</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G163" s="148" t="s">
+        <v>696</v>
+      </c>
+      <c r="H163" s="149">
+        <v>10020</v>
+      </c>
+      <c r="I163" s="148">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J163" s="148">
+        <v>49.57</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G164" s="148" t="s">
+        <v>697</v>
+      </c>
+      <c r="H164" s="149">
+        <v>11821</v>
+      </c>
+      <c r="I164" s="148">
+        <v>23.72</v>
+      </c>
+      <c r="J164" s="148">
+        <v>73.290000000000006</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G165" s="148" t="s">
+        <v>698</v>
+      </c>
+      <c r="H165" s="149">
+        <v>13314</v>
+      </c>
+      <c r="I165" s="148">
+        <v>26.71</v>
+      </c>
+      <c r="J165" s="148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G166" s="148"/>
+      <c r="H166" s="148"/>
+      <c r="I166" s="148"/>
+      <c r="J166" s="148"/>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G167" s="148" t="s">
+        <v>603</v>
+      </c>
+      <c r="H167" s="149">
+        <v>49839</v>
+      </c>
+      <c r="I167" s="148">
+        <v>100</v>
+      </c>
+      <c r="J167" s="148"/>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B171" t="s">
+        <v>699</v>
+      </c>
+      <c r="G171" s="152" t="s">
+        <v>699</v>
+      </c>
+      <c r="H171" s="152"/>
+      <c r="I171" s="152"/>
+      <c r="J171" s="152"/>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G172" s="152"/>
+      <c r="H172" s="152"/>
+      <c r="I172" s="152"/>
+      <c r="J172" s="152"/>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B173" t="s">
+        <v>734</v>
+      </c>
+      <c r="C173" t="s">
+        <v>594</v>
+      </c>
+      <c r="G173" s="152" t="s">
+        <v>591</v>
+      </c>
+      <c r="H173" s="152" t="s">
+        <v>592</v>
+      </c>
+      <c r="I173" s="152" t="s">
+        <v>593</v>
+      </c>
+      <c r="J173" s="152" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G174" s="152"/>
+      <c r="H174" s="152"/>
+      <c r="I174" s="152"/>
+      <c r="J174" s="152"/>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B175" t="s">
+        <v>753</v>
+      </c>
+      <c r="C175">
+        <v>7.44</v>
+      </c>
+      <c r="G175" s="152" t="s">
+        <v>700</v>
+      </c>
+      <c r="H175" s="153">
+        <v>16582</v>
+      </c>
+      <c r="I175" s="152">
+        <v>22.1</v>
+      </c>
+      <c r="J175" s="152">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B176" t="s">
+        <v>754</v>
+      </c>
+      <c r="C176">
+        <v>14.74</v>
+      </c>
+      <c r="G176" s="152" t="s">
+        <v>701</v>
+      </c>
+      <c r="H176" s="153">
+        <v>27553</v>
+      </c>
+      <c r="I176" s="152">
+        <v>36.729999999999997</v>
+      </c>
+      <c r="J176" s="152">
+        <v>58.83</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B177" t="s">
+        <v>755</v>
+      </c>
+      <c r="C177">
+        <v>20.93</v>
+      </c>
+      <c r="G177" s="152" t="s">
+        <v>702</v>
+      </c>
+      <c r="H177" s="153">
+        <v>18910</v>
+      </c>
+      <c r="I177" s="152">
+        <v>25.21</v>
+      </c>
+      <c r="J177" s="152">
+        <v>84.04</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B178" t="s">
+        <v>756</v>
+      </c>
+      <c r="C178">
+        <v>28.06</v>
+      </c>
+      <c r="G178" s="152" t="s">
+        <v>703</v>
+      </c>
+      <c r="H178" s="153">
+        <v>11970</v>
+      </c>
+      <c r="I178" s="152">
+        <v>15.96</v>
+      </c>
+      <c r="J178" s="152">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B179" t="s">
+        <v>757</v>
+      </c>
+      <c r="C179">
+        <v>34.44</v>
+      </c>
+      <c r="G179" s="152"/>
+      <c r="H179" s="152"/>
+      <c r="I179" s="152"/>
+      <c r="J179" s="152"/>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B180" t="s">
+        <v>758</v>
+      </c>
+      <c r="C180">
+        <v>43.28</v>
+      </c>
+      <c r="G180" s="152" t="s">
+        <v>603</v>
+      </c>
+      <c r="H180" s="153">
+        <v>75015</v>
+      </c>
+      <c r="I180" s="152">
+        <v>100</v>
+      </c>
+      <c r="J180" s="152"/>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B181" t="s">
+        <v>759</v>
+      </c>
+      <c r="C181">
+        <v>51.2</v>
+      </c>
+      <c r="G181" s="156" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B182" t="s">
+        <v>760</v>
+      </c>
+      <c r="C182">
+        <v>57.33</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B183" t="s">
+        <v>761</v>
+      </c>
+      <c r="C183">
+        <v>63.02</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B184" t="s">
+        <v>762</v>
+      </c>
+      <c r="C184">
+        <v>71.05</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B185" t="s">
+        <v>763</v>
+      </c>
+      <c r="C185">
+        <v>76.930000000000007</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B186" t="s">
+        <v>764</v>
+      </c>
+      <c r="C186">
+        <v>84.04</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B187" t="s">
+        <v>765</v>
+      </c>
+      <c r="C187">
+        <v>90.95</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B188" t="s">
+        <v>766</v>
+      </c>
+      <c r="C188">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B190" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B193" t="s">
+        <v>704</v>
+      </c>
+      <c r="G193" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B195" t="s">
+        <v>771</v>
+      </c>
+      <c r="G195" s="148" t="s">
+        <v>591</v>
+      </c>
+      <c r="H195" s="148" t="s">
+        <v>592</v>
+      </c>
+      <c r="I195" s="148" t="s">
+        <v>593</v>
+      </c>
+      <c r="J195" s="148" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G196" s="148"/>
+      <c r="H196" s="148"/>
+      <c r="I196" s="148"/>
+      <c r="J196" s="148"/>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G197" s="148" t="s">
+        <v>705</v>
+      </c>
+      <c r="H197" s="149">
+        <v>1419</v>
+      </c>
+      <c r="I197" s="148">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="J197" s="148">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G198" s="148" t="s">
+        <v>706</v>
+      </c>
+      <c r="H198" s="149">
+        <v>2899</v>
+      </c>
+      <c r="I198" s="148">
+        <v>8.4</v>
+      </c>
+      <c r="J198" s="148">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G199" s="148" t="s">
+        <v>707</v>
+      </c>
+      <c r="H199" s="148">
+        <v>567</v>
+      </c>
+      <c r="I199" s="148">
+        <v>1.64</v>
+      </c>
+      <c r="J199" s="148">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G200" s="148" t="s">
+        <v>708</v>
+      </c>
+      <c r="H200" s="149">
+        <v>2322</v>
+      </c>
+      <c r="I200" s="148">
+        <v>6.73</v>
+      </c>
+      <c r="J200" s="148">
+        <v>20.88</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G201" s="148" t="s">
+        <v>709</v>
+      </c>
+      <c r="H201" s="149">
+        <v>2654</v>
+      </c>
+      <c r="I201" s="148">
+        <v>7.69</v>
+      </c>
+      <c r="J201" s="148">
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G202" s="148" t="s">
+        <v>710</v>
+      </c>
+      <c r="H202" s="149">
+        <v>2396</v>
+      </c>
+      <c r="I202" s="148">
+        <v>6.94</v>
+      </c>
+      <c r="J202" s="148">
+        <v>35.51</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G203" s="148" t="s">
+        <v>711</v>
+      </c>
+      <c r="H203" s="149">
+        <v>11491</v>
+      </c>
+      <c r="I203" s="148">
+        <v>33.29</v>
+      </c>
+      <c r="J203" s="148">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G204" s="148" t="s">
+        <v>712</v>
+      </c>
+      <c r="H204" s="149">
+        <v>2314</v>
+      </c>
+      <c r="I204" s="148">
+        <v>6.7</v>
+      </c>
+      <c r="J204" s="148">
+        <v>75.510000000000005</v>
+      </c>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G205" s="148" t="s">
+        <v>713</v>
+      </c>
+      <c r="H205" s="149">
+        <v>1626</v>
+      </c>
+      <c r="I205" s="148">
+        <v>4.71</v>
+      </c>
+      <c r="J205" s="148">
+        <v>80.22</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G206" s="148" t="s">
+        <v>714</v>
+      </c>
+      <c r="H206" s="149">
+        <v>6827</v>
+      </c>
+      <c r="I206" s="148">
+        <v>19.78</v>
+      </c>
+      <c r="J206" s="148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G208" t="s">
+        <v>603</v>
+      </c>
+      <c r="H208" s="147">
+        <v>34515</v>
+      </c>
+      <c r="I208">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B211" t="s">
+        <v>715</v>
+      </c>
+      <c r="G211" s="148" t="s">
+        <v>715</v>
+      </c>
+      <c r="H211" s="148"/>
+      <c r="I211" s="148"/>
+      <c r="J211" s="148"/>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G212" s="148"/>
+      <c r="H212" s="148"/>
+      <c r="I212" s="148"/>
+      <c r="J212" s="148"/>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B213" t="s">
+        <v>771</v>
+      </c>
+      <c r="G213" s="148" t="s">
+        <v>591</v>
+      </c>
+      <c r="H213" s="148" t="s">
+        <v>592</v>
+      </c>
+      <c r="I213" s="148" t="s">
+        <v>593</v>
+      </c>
+      <c r="J213" s="148" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G214" s="148"/>
+      <c r="H214" s="148"/>
+      <c r="I214" s="148"/>
+      <c r="J214" s="148"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G215" s="148" t="s">
+        <v>716</v>
+      </c>
+      <c r="H215" s="149">
+        <v>8272</v>
+      </c>
+      <c r="I215" s="148">
+        <v>18.68</v>
+      </c>
+      <c r="J215" s="148">
+        <v>18.68</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G216" s="148" t="s">
+        <v>717</v>
+      </c>
+      <c r="H216" s="149">
+        <v>6594</v>
+      </c>
+      <c r="I216" s="148">
+        <v>14.89</v>
+      </c>
+      <c r="J216" s="148">
+        <v>33.58</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G217" s="148" t="s">
+        <v>718</v>
+      </c>
+      <c r="H217" s="149">
+        <v>7539</v>
+      </c>
+      <c r="I217" s="148">
+        <v>17.03</v>
+      </c>
+      <c r="J217" s="148">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G218" s="148" t="s">
+        <v>719</v>
+      </c>
+      <c r="H218" s="149">
+        <v>6110</v>
+      </c>
+      <c r="I218" s="148">
+        <v>13.8</v>
+      </c>
+      <c r="J218" s="148">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G219" s="148" t="s">
+        <v>720</v>
+      </c>
+      <c r="H219" s="149">
+        <v>5309</v>
+      </c>
+      <c r="I219" s="148">
+        <v>11.99</v>
+      </c>
+      <c r="J219" s="148">
+        <v>76.39</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G220" s="148" t="s">
+        <v>721</v>
+      </c>
+      <c r="H220" s="149">
+        <v>5189</v>
+      </c>
+      <c r="I220" s="148">
+        <v>11.72</v>
+      </c>
+      <c r="J220" s="148">
+        <v>88.11</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G221" s="148" t="s">
+        <v>722</v>
+      </c>
+      <c r="H221" s="149">
+        <v>5263</v>
+      </c>
+      <c r="I221" s="148">
+        <v>11.89</v>
+      </c>
+      <c r="J221" s="148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G222" s="148"/>
+      <c r="H222" s="148"/>
+      <c r="I222" s="148"/>
+      <c r="J222" s="148"/>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G223" s="148" t="s">
+        <v>603</v>
+      </c>
+      <c r="H223" s="149">
+        <v>44276</v>
+      </c>
+      <c r="I223" s="148">
+        <v>100</v>
+      </c>
+      <c r="J223" s="148"/>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B226" t="s">
+        <v>723</v>
+      </c>
+      <c r="G226" s="148" t="s">
+        <v>723</v>
+      </c>
+      <c r="H226" s="148"/>
+      <c r="I226" s="148"/>
+      <c r="J226" s="148"/>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G227" s="148"/>
+      <c r="H227" s="148"/>
+      <c r="I227" s="148"/>
+      <c r="J227" s="148"/>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B228" t="s">
+        <v>771</v>
+      </c>
+      <c r="G228" s="148" t="s">
+        <v>591</v>
+      </c>
+      <c r="H228" s="148" t="s">
+        <v>592</v>
+      </c>
+      <c r="I228" s="148" t="s">
+        <v>593</v>
+      </c>
+      <c r="J228" s="148" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G229" s="148"/>
+      <c r="H229" s="148"/>
+      <c r="I229" s="148"/>
+      <c r="J229" s="148"/>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G230" s="148" t="s">
+        <v>724</v>
+      </c>
+      <c r="H230" s="149">
+        <v>3629</v>
+      </c>
+      <c r="I230" s="148">
+        <v>8.16</v>
+      </c>
+      <c r="J230" s="148">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G231" s="148" t="s">
+        <v>725</v>
+      </c>
+      <c r="H231" s="149">
+        <v>4682</v>
+      </c>
+      <c r="I231" s="148">
+        <v>10.53</v>
+      </c>
+      <c r="J231" s="148">
+        <v>18.690000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G232" s="148" t="s">
+        <v>726</v>
+      </c>
+      <c r="H232" s="149">
+        <v>5021</v>
+      </c>
+      <c r="I232" s="148">
+        <v>11.29</v>
+      </c>
+      <c r="J232" s="148">
+        <v>29.98</v>
+      </c>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G233" s="148" t="s">
+        <v>727</v>
+      </c>
+      <c r="H233" s="149">
+        <v>4640</v>
+      </c>
+      <c r="I233" s="148">
+        <v>10.43</v>
+      </c>
+      <c r="J233" s="148">
+        <v>40.409999999999997</v>
+      </c>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G234" s="148" t="s">
+        <v>728</v>
+      </c>
+      <c r="H234" s="149">
+        <v>4422</v>
+      </c>
+      <c r="I234" s="148">
+        <v>9.94</v>
+      </c>
+      <c r="J234" s="148">
+        <v>50.36</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G235" s="148" t="s">
+        <v>729</v>
+      </c>
+      <c r="H235" s="149">
+        <v>4709</v>
+      </c>
+      <c r="I235" s="148">
+        <v>10.59</v>
+      </c>
+      <c r="J235" s="148">
+        <v>60.94</v>
+      </c>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G236" s="148" t="s">
+        <v>730</v>
+      </c>
+      <c r="H236" s="149">
+        <v>4570</v>
+      </c>
+      <c r="I236" s="148">
+        <v>10.28</v>
+      </c>
+      <c r="J236" s="148">
+        <v>71.22</v>
+      </c>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G237" s="148" t="s">
+        <v>731</v>
+      </c>
+      <c r="H237" s="149">
+        <v>4272</v>
+      </c>
+      <c r="I237" s="148">
+        <v>9.61</v>
+      </c>
+      <c r="J237" s="148">
+        <v>80.83</v>
+      </c>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G238" s="148" t="s">
+        <v>732</v>
+      </c>
+      <c r="H238" s="149">
+        <v>3985</v>
+      </c>
+      <c r="I238" s="148">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="J238" s="148">
+        <v>89.79</v>
+      </c>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G239" s="148" t="s">
+        <v>733</v>
+      </c>
+      <c r="H239" s="149">
+        <v>4542</v>
+      </c>
+      <c r="I239" s="148">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="J239" s="148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G240" s="148"/>
+      <c r="H240" s="148"/>
+      <c r="I240" s="148"/>
+      <c r="J240" s="148"/>
+    </row>
+    <row r="241" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G241" s="148" t="s">
+        <v>603</v>
+      </c>
+      <c r="H241" s="149">
+        <v>44472</v>
+      </c>
+      <c r="I241" s="148">
+        <v>100</v>
+      </c>
+      <c r="J241" s="148"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>